--- a/Traffic_Simulation/Assets/Results/Congestion.xlsx
+++ b/Traffic_Simulation/Assets/Results/Congestion.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\workspace\TSB\Traffic_Simulation\Assets\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87E4179-0781-43E9-A0D8-FA16EADA1860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9B718E8-27CF-4EFE-99E8-BC6C07030724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
+    <workbookView xWindow="57480" yWindow="7845" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
   </bookViews>
   <sheets>
-    <sheet name="30-shortest" sheetId="2" r:id="rId1"/>
-    <sheet name="40-shortest" sheetId="1" r:id="rId2"/>
+    <sheet name="20-shortest" sheetId="3" r:id="rId1"/>
+    <sheet name="30-shortest" sheetId="2" r:id="rId2"/>
+    <sheet name="40-shortest" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="46">
   <si>
     <t>Congestion = 여러대 있을 때 - 혼자 갈때 travel time</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +162,23 @@
   </si>
   <si>
     <t>Truck-39</t>
+  </si>
+  <si>
+    <t>Congestion_1</t>
+  </si>
+  <si>
+    <t>Congestion_2</t>
+  </si>
+  <si>
+    <t>Truck_id</t>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congestion_1 (출발지 -&gt; pickup)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -206,11 +224,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,26 +541,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640890E4-98FF-4D08-9420-BEDEF30F9EDF}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49134889-6B41-4415-900A-9F1B25EE9ABB}">
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002B6E8-5374-4998-94D3-D93E3D26C283}">
-  <dimension ref="A1:C41"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -557,442 +557,1124 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>-2.5699999999999994</v>
-      </c>
-      <c r="C2">
-        <v>-38.699999999999996</v>
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.96</v>
+        <v>31.979000000000003</v>
       </c>
       <c r="C3">
-        <v>-37.47</v>
+        <v>-7.625</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>4.1699999999999982</v>
+        <v>-38.43</v>
       </c>
       <c r="C4">
-        <v>-62.47999999999999</v>
+        <v>42.698999999999991</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5">
-        <v>4.1499999999999995</v>
+        <v>33.908000000000001</v>
       </c>
       <c r="C5">
-        <v>-38.619999999999997</v>
+        <v>26.975999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>1.3599999999999994</v>
+        <v>-56.004999999999995</v>
       </c>
       <c r="C6">
-        <v>-60.04</v>
+        <v>-14.75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>2.95</v>
+        <v>0.74300000000000033</v>
       </c>
       <c r="C7">
-        <v>-58.010000000000005</v>
+        <v>-12.037000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>1.38</v>
+        <v>-27.277000000000001</v>
       </c>
       <c r="C8">
-        <v>-39.950000000000003</v>
+        <v>13.790999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>1.42</v>
+        <v>-38.247999999999998</v>
       </c>
       <c r="C9">
-        <v>-72.5</v>
+        <v>-1.9549999999999983</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>4.129999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="C10">
-        <v>-15.989999999999998</v>
+        <v>-6.8960000000000008</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>2.96</v>
+        <v>37.582000000000001</v>
       </c>
       <c r="C11">
-        <v>-21.840000000000003</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>1.3999999999999995</v>
+        <v>3.7789999999999999</v>
       </c>
       <c r="C12">
-        <v>-29.82</v>
+        <v>-12.435000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>1.3999999999999995</v>
+        <v>0.72199999999999953</v>
       </c>
       <c r="C13">
-        <v>-81.559999999999988</v>
+        <v>18.713999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.91999999999999993</v>
+        <v>34.504000000000005</v>
       </c>
       <c r="C14">
-        <v>-66.13000000000001</v>
+        <v>-9.7439999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>4.1799999999999988</v>
+        <v>0.73399999999999999</v>
       </c>
       <c r="C15">
-        <v>-36.950000000000003</v>
+        <v>-5.6679999999999993</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>4.1799999999999988</v>
+        <v>-62.501000000000005</v>
       </c>
       <c r="C16">
-        <v>-22.29</v>
+        <v>20.381</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B17">
-        <v>0.14000000000000057</v>
+        <v>0.73300000000000054</v>
       </c>
       <c r="C17">
-        <v>-8.3000000000000043</v>
+        <v>23.629999999999995</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>-3.1000000000000014</v>
+        <v>3.7589999999999995</v>
       </c>
       <c r="C18">
-        <v>13.729999999999997</v>
+        <v>30.259999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>1.3999999999999986</v>
+        <v>29.798999999999999</v>
       </c>
       <c r="C19">
-        <v>-62.150000000000006</v>
+        <v>15.154000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>0.57999999999999829</v>
+        <v>-25.417000000000002</v>
       </c>
       <c r="C20">
-        <v>-10.54</v>
+        <v>29.338000000000008</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B21">
-        <v>4.169999999999999</v>
+        <v>-0.41100000000000136</v>
       </c>
       <c r="C21">
-        <v>-78.45</v>
+        <v>-11.212000000000003</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>2.9999999999999991</v>
+        <v>0.75300000000000011</v>
       </c>
       <c r="C22">
-        <v>-58.05</v>
+        <v>-4.7270000000000039</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <f>AVERAGE(B3:B22)</f>
+        <v>-3.4275999999999991</v>
+      </c>
+      <c r="C24">
+        <f>AVERAGE(C3:C22)</f>
+        <v>6.3786999999999994</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C26">
+        <f>AVERAGE(B3:C22)</f>
+        <v>1.4755499999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640890E4-98FF-4D08-9420-BEDEF30F9EDF}">
+  <dimension ref="A1:C36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.0999999999999979</v>
+      </c>
+      <c r="C3">
+        <v>3.1199999999999974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="C4">
+        <v>11.969999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>1.25</v>
+      </c>
+      <c r="C5">
+        <v>31.619999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>-0.18999999999999773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="C7">
+        <v>4.3199999999999932</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>12.969999999999999</v>
+      </c>
+      <c r="C8">
+        <v>9.9999999999980105E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>4.01</v>
+      </c>
+      <c r="C9">
+        <v>22.929999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>3.01</v>
+      </c>
+      <c r="C10">
+        <v>14.069999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>4.01</v>
+      </c>
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>4.0099999999999989</v>
+      </c>
+      <c r="C12">
+        <v>5.860000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1.2599999999999998</v>
+      </c>
+      <c r="C13">
+        <v>19.160000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>5.4500000000000028</v>
+      </c>
+      <c r="C14">
+        <v>0.62999999999999545</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>3.0900000000000034</v>
+      </c>
+      <c r="C15">
+        <v>1.8799999999999955</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>7.41</v>
+      </c>
+      <c r="C16">
+        <v>0.70000000000000284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>6.8299999999999983</v>
+      </c>
+      <c r="C17">
+        <v>1.2600000000000051</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>2.9800000000000004</v>
+      </c>
+      <c r="C18">
+        <v>5.7000000000000028</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>3.9899999999999993</v>
+      </c>
+      <c r="C19">
+        <v>15.509999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>3.75</v>
+      </c>
+      <c r="C20">
+        <v>0.86999999999999744</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>2.9399999999999995</v>
+      </c>
+      <c r="C21">
+        <v>19.060000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>4.01</v>
+      </c>
+      <c r="C22">
+        <v>15.400000000000006</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.49000000000000199</v>
+        <v>2.9700000000000006</v>
       </c>
       <c r="C23">
-        <v>-18.190000000000005</v>
+        <v>3.0499999999999972</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>4.169999999999999</v>
+        <v>11.61</v>
       </c>
       <c r="C24">
-        <v>-66.34</v>
+        <v>-0.28999999999999915</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>3.629999999999999</v>
+        <v>8.7600000000000016</v>
       </c>
       <c r="C25">
-        <v>-82.509999999999991</v>
+        <v>19.340000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>3.5799999999999983</v>
+        <v>1.25</v>
       </c>
       <c r="C26">
-        <v>-3.4400000000000048</v>
+        <v>13.009999999999991</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B27">
-        <v>4.1499999999999995</v>
+        <v>11.440000000000001</v>
       </c>
       <c r="C27">
-        <v>-59.89</v>
+        <v>-1.230000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
+      <c r="A28" t="s">
+        <v>6</v>
       </c>
       <c r="B28">
-        <v>2.96</v>
+        <v>11.300000000000004</v>
       </c>
       <c r="C28">
-        <v>-79.889999999999986</v>
+        <v>0.81999999999999318</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="B29">
-        <v>2.95</v>
+        <v>1.25</v>
       </c>
       <c r="C29">
-        <v>-59.800000000000004</v>
+        <v>8.4699999999999989</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>2.9999999999999991</v>
+        <v>11.970000000000006</v>
       </c>
       <c r="C30">
-        <v>-41.85</v>
+        <v>-3.0000000000001137E-2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>2.95</v>
+        <v>1.2300000000000004</v>
       </c>
       <c r="C31">
-        <v>-72.88</v>
+        <v>19.819999999999993</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>1.0399999999999991</v>
+        <v>1.2399999999999993</v>
       </c>
       <c r="C32">
-        <v>1.029999999999994</v>
+        <v>10.189999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <f>AVERAGE(B3:B32)</f>
+        <v>4.7536666666666658</v>
+      </c>
+      <c r="C34">
+        <f>AVERAGE(C3:C32)</f>
+        <v>8.2843333333333327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C36">
+        <f>AVERAGE(B3:C32)</f>
+        <v>6.5190000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002B6E8-5374-4998-94D3-D93E3D26C283}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-0.11000000000000032</v>
+      </c>
+      <c r="C3">
+        <v>0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1.04</v>
+      </c>
+      <c r="C4">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3.8500000000000014</v>
+      </c>
+      <c r="C5">
+        <v>18.710000000000008</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>3.9099999999999993</v>
+      </c>
+      <c r="C6">
+        <v>29.369999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>1.04</v>
+      </c>
+      <c r="C7">
+        <v>19.370000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>2.9399999999999995</v>
+      </c>
+      <c r="C8">
+        <v>1.7600000000000051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>1.0500000000000007</v>
+      </c>
+      <c r="C9">
+        <v>0.10999999999999943</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10">
+        <v>1.04</v>
+      </c>
+      <c r="C10">
+        <v>24.139999999999986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>3.8200000000000003</v>
+      </c>
+      <c r="C11">
+        <v>2.5700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>2.9600000000000009</v>
+      </c>
+      <c r="C12">
+        <v>11.719999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>1.0600000000000005</v>
+      </c>
+      <c r="C13">
+        <v>5.990000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>1.04</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15">
+        <v>1.0600000000000005</v>
+      </c>
+      <c r="C15">
+        <v>16.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>3.9299999999999997</v>
+      </c>
+      <c r="C16">
+        <v>6.0000000000002274E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>3.9500000000000011</v>
+      </c>
+      <c r="C17">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>-7.9999999999998295E-2</v>
+      </c>
+      <c r="C18">
+        <v>-2.0000000000003126E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>-1.6799999999999997</v>
+      </c>
+      <c r="C19">
+        <v>5.7399999999999984</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.91999999999999815</v>
+      </c>
+      <c r="C20">
+        <v>13.519999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.46999999999999886</v>
+      </c>
+      <c r="C21">
+        <v>-0.64000000000000057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>3.8899999999999997</v>
+      </c>
+      <c r="C22">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>2.8999999999999995</v>
+      </c>
+      <c r="C23">
+        <v>7.2800000000000011</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.93999999999999773</v>
+      </c>
+      <c r="C24">
+        <v>3.9999999999999147E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>3.92</v>
+      </c>
+      <c r="C25">
+        <v>22.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>3.9399999999999995</v>
+      </c>
+      <c r="C26">
+        <v>10.460000000000008</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>-3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>3.919999999999999</v>
+      </c>
+      <c r="C28">
+        <v>26.239999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>2.9299999999999988</v>
+      </c>
+      <c r="C29">
+        <v>16.099999999999994</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>2.9299999999999988</v>
+      </c>
+      <c r="C30">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31">
+        <v>2.8899999999999997</v>
+      </c>
+      <c r="C31">
+        <v>4.3100000000000023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>2.9499999999999993</v>
+      </c>
+      <c r="C32">
+        <v>4.3599999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>2.9800000000000004</v>
+        <v>3.3500000000000014</v>
       </c>
       <c r="C33">
-        <v>-39.620000000000005</v>
+        <v>14.740000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>4.4600000000000009</v>
+        <v>2.9299999999999988</v>
       </c>
       <c r="C34">
-        <v>-8.2299999999999969</v>
+        <v>9.6100000000000065</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>1.8499999999999943</v>
+        <v>2.9300000000000033</v>
       </c>
       <c r="C35">
-        <v>2.25</v>
+        <v>-0.74000000000000199</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.82999999999999918</v>
+        <v>2.8700000000000045</v>
       </c>
       <c r="C36">
-        <v>-40.86</v>
+        <v>10.630000000000003</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37">
-        <v>0.8199999999999994</v>
+        <v>1.04</v>
       </c>
       <c r="C37">
-        <v>-67.19</v>
+        <v>29.769999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38">
-        <v>-1.25</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="C38">
-        <v>-7.1099999999999994</v>
+        <v>17.659999999999997</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>0.98999999999999932</v>
+        <v>0.27999999999999758</v>
       </c>
       <c r="C39">
-        <v>-27.820000000000004</v>
+        <v>-0.16000000000000369</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B40">
-        <v>-1.0499999999999972</v>
+        <v>1.0499999999999998</v>
       </c>
       <c r="C40">
-        <v>-16.670000000000002</v>
+        <v>5.1999999999999957</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41">
+        <v>0.24000000000000199</v>
+      </c>
+      <c r="C41">
+        <v>5.8900000000000006</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
         <v>10</v>
       </c>
-      <c r="B41">
-        <v>4.129999999999999</v>
-      </c>
-      <c r="C41">
-        <v>-63.140000000000008</v>
+      <c r="B42">
+        <v>3.8999999999999995</v>
+      </c>
+      <c r="C42">
+        <v>9.4900000000000091</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <f>AVERAGE(B3:B42)</f>
+        <v>2.1015000000000006</v>
+      </c>
+      <c r="C44">
+        <f>AVERAGE(C3:C42)</f>
+        <v>10.167249999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="C46">
+        <f>SUM(B3:C42)</f>
+        <v>490.74999999999994</v>
       </c>
     </row>
   </sheetData>

--- a/Traffic_Simulation/Assets/Results/Congestion.xlsx
+++ b/Traffic_Simulation/Assets/Results/Congestion.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\purify\workspace\TSB\Traffic_Simulation\Assets\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\workspace\TSB\Traffic_Simulation\Assets\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9772B8-766B-40EB-83AE-AFD7F45A8A61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2582195-8C90-4F1C-8868-36529FC895A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2710" yWindow="330" windowWidth="18360" windowHeight="11350" firstSheet="3" activeTab="5" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
+    <workbookView xWindow="57480" yWindow="7845" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
   </bookViews>
   <sheets>
-    <sheet name="10-shortest" sheetId="4" r:id="rId1"/>
-    <sheet name="20-shortest" sheetId="3" r:id="rId2"/>
+    <sheet name="prev-10-shortest" sheetId="4" r:id="rId1"/>
+    <sheet name="prev-20-shortest" sheetId="3" r:id="rId2"/>
     <sheet name="prev-30-shortest" sheetId="2" r:id="rId3"/>
     <sheet name="prev-40-shortest" sheetId="1" r:id="rId4"/>
     <sheet name="prev-50-shortest" sheetId="5" r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="80">
   <si>
     <t>Truck-0</t>
   </si>
@@ -164,14 +164,6 @@
     <t>Truck-39</t>
   </si>
   <si>
-    <t>congestion_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>congestion_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> Total Time</t>
   </si>
   <si>
@@ -282,12 +274,28 @@
   <si>
     <t>Truck-69</t>
   </si>
+  <si>
+    <t>congestion ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pick-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>drop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,6 +306,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -321,12 +337,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -334,10 +353,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="백분율" xfId="1" builtinId="5"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C2C484-9B3B-4452-B679-20744E6D870A}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K12"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -665,49 +688,54 @@
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.9140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -732,6 +760,14 @@
       <c r="H3">
         <v>30.13</v>
       </c>
+      <c r="J3">
+        <f>(C3-G3)/G3</f>
+        <v>-3.8884192730346649E-2</v>
+      </c>
+      <c r="K3">
+        <f>(D3-H3)/H3</f>
+        <v>-6.173249253235976E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -755,6 +791,14 @@
       <c r="H4">
         <v>50.58</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J12" si="0">(C4-G4)/G4</f>
+        <v>0.14737558099988665</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K12" si="1">(D4-H4)/H4</f>
+        <v>2.0660340055357884E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -778,6 +822,14 @@
       <c r="H5">
         <v>79.525000000000006</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>3.0182122401699121E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>-2.2634391700723901E-3</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -801,6 +853,14 @@
       <c r="H6">
         <v>29.204999999999998</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>-5.5970969870244157E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-2.1229241568224533E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -824,6 +884,14 @@
       <c r="H7">
         <v>59.02</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>-1.9041064464326803E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>9.3951202982039891E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -847,6 +915,14 @@
       <c r="H8">
         <v>46.344999999999999</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>8.8418294945966855E-3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-3.3444816053511642E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -870,6 +946,14 @@
       <c r="H9">
         <v>49.744999999999997</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.19640971488912348</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1.0754849733641646E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -893,6 +977,14 @@
       <c r="H10">
         <v>70.504999999999995</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>9.1043307086614133E-3</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>-3.8082405503155836E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -916,6 +1008,14 @@
       <c r="H11">
         <v>28.47</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>4.521016617790815E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>1.8264840182648387E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -939,11 +1039,31 @@
       <c r="H12">
         <v>77.63</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>4.4455300439667819E-2</v>
+      </c>
+      <c r="K12">
+        <f>(D12-H12)/H12</f>
+        <v>2.4797114517583558E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J16" s="3">
+        <f>AVERAGE(J3:K12)</f>
+        <v>1.8967938534528644E-2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -952,54 +1072,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49134889-6B41-4415-900A-9F1B25EE9ABB}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:K22"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="10" max="11" width="13.58203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -1024,6 +1151,14 @@
       <c r="H3">
         <v>34.520000000000003</v>
       </c>
+      <c r="J3">
+        <f>(C3-G3)/G3</f>
+        <v>1.9874130506789905E-3</v>
+      </c>
+      <c r="K3">
+        <f>(D3-H3)/H3</f>
+        <v>5.793742757820399E-4</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -1047,6 +1182,14 @@
       <c r="H4">
         <v>33.53</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J22" si="0">(C4-G4)/G4</f>
+        <v>0.19809322033898316</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K22" si="1">(D4-H4)/H4</f>
+        <v>-3.146436027438114E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -1070,6 +1213,14 @@
       <c r="H5">
         <v>29.815000000000001</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.17071366941945038</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>2.5825926547040065E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1093,6 +1244,14 @@
       <c r="H6">
         <v>94.984999999999999</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.3375689683999045E-3</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1.4686529452018699E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1116,6 +1275,14 @@
       <c r="H7">
         <v>59.704999999999998</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.17911700520396162</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>2.0768779834184774E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1139,6 +1306,14 @@
       <c r="H8">
         <v>60.14</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.15736661771904062</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.10276022613900886</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -1162,6 +1337,14 @@
       <c r="H9">
         <v>38.340000000000003</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.19620253164556956</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>-3.2603025560772035E-3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -1185,6 +1368,14 @@
       <c r="H10">
         <v>45.984999999999999</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.47669491525423729</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>7.0675220180494262E-3</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -1208,6 +1399,14 @@
       <c r="H11">
         <v>33.69</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>4.8631239935587808E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-5.9364796675559581E-4</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -1231,6 +1430,14 @@
       <c r="H12">
         <v>26.795000000000002</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>-3.4697855750487352E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-0.10654972942713194</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -1254,6 +1461,14 @@
       <c r="H13">
         <v>53.335000000000001</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.22008515636470408</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>-3.5342645542326766E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -1277,6 +1492,14 @@
       <c r="H14">
         <v>30.87</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.67513227513227525</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>-2.6886945254292253E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -1300,6 +1523,14 @@
       <c r="H15">
         <v>44.814999999999998</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>-2.6107330134999322E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -1323,8 +1554,16 @@
       <c r="H16">
         <v>50.454999999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.19746568109820475</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>1.1990882965018412E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1346,8 +1585,16 @@
       <c r="H17">
         <v>29.114999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.20127118644067801</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>8.981624592134646E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1369,8 +1616,16 @@
       <c r="H18">
         <v>54.01</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.20276008492569003</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.12710609146454366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1392,8 +1647,16 @@
       <c r="H19">
         <v>44.54</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.19767441860465107</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>8.5877862595419907E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1415,8 +1678,16 @@
       <c r="H20">
         <v>61.005000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.20254506892895019</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>4.917629702483356E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1438,8 +1709,16 @@
       <c r="H21">
         <v>28.36</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.10881958417169676</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>1.4809590973201753E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1461,11 +1740,31 @@
       <c r="H22">
         <v>68.754999999999995</v>
       </c>
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.12954264524103817</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>3.3961166460621167E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J25" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J26" s="3">
+        <f>AVERAGE(J3:K22)</f>
+        <v>0.1010176323471516</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1474,54 +1773,58 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640890E4-98FF-4D08-9420-BEDEF30F9EDF}">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -1546,6 +1849,14 @@
       <c r="H3">
         <v>83.275000000000006</v>
       </c>
+      <c r="J3">
+        <f>(C3-G3)/G3</f>
+        <v>1.7436791630339645E-3</v>
+      </c>
+      <c r="K3">
+        <f>(D3-H3)/H3</f>
+        <v>5.8661062743920633E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -1569,6 +1880,14 @@
       <c r="H4">
         <v>84.47</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J32" si="0">(C4-G4)/G4</f>
+        <v>-0.28763516163370495</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K32" si="1">(D4-H4)/H4</f>
+        <v>-0.37605066887652422</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -1592,6 +1911,14 @@
       <c r="H5">
         <v>58.515000000000001</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>7.6380728554641675E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>5.0243527300692092E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -1615,6 +1942,14 @@
       <c r="H6">
         <v>60.42</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.21504237288135605</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>1.0013240648791739E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -1638,6 +1973,14 @@
       <c r="H7">
         <v>34.914999999999999</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.21762208067940561</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.22998711155663759</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -1661,6 +2004,14 @@
       <c r="H8">
         <v>69.42</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>-1.7444981213097118E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.14743589743589741</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -1684,6 +2035,14 @@
       <c r="H9">
         <v>68.814999999999998</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>3.6245881149869305E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>3.6329288672536054E-4</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -1707,6 +2066,14 @@
       <c r="H10">
         <v>67.290000000000006</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.47770700636942676</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.12364392926140574</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -1730,6 +2097,14 @@
       <c r="H11">
         <v>77.48</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>2.1462517246665511E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>7.0856995353639582E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -1753,6 +2128,14 @@
       <c r="H12">
         <v>87.704999999999998</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.2131495227995758</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>8.3062539193888563E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -1776,6 +2159,14 @@
       <c r="H13">
         <v>60.854999999999997</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.6878306878306879</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.14394873058910523</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -1799,6 +2190,14 @@
       <c r="H14">
         <v>41.57</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>2.8357331766088636E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.14204955496752469</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -1822,6 +2221,14 @@
       <c r="H15">
         <v>51.555</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.21224920802534314</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.9978663563184972E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -1845,8 +2252,16 @@
       <c r="H16">
         <v>37.590000000000003</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.17842323651452299</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.14245810055865912</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1868,8 +2283,16 @@
       <c r="H17">
         <v>76.984999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.6842661034846883</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>3.8449048515944585E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1891,8 +2314,16 @@
       <c r="H18">
         <v>71.234999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.21785334750265681</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.14192461570857021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1914,8 +2345,16 @@
       <c r="H19">
         <v>83.71</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.69500531349628047</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.12549277266754283</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +2376,16 @@
       <c r="H20">
         <v>39.295000000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.29783451842275371</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>2.3158162616108834E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1960,8 +2407,16 @@
       <c r="H21">
         <v>49.74</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>2.7667402501839519E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>1.6586248492159141E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1983,8 +2438,16 @@
       <c r="H22">
         <v>36.26</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.69426751592356695</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>-2.2062879205735878E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2006,8 +2469,16 @@
       <c r="H23">
         <v>27.78</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.478460451977401</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>9.0172786177105793E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2029,8 +2500,16 @@
       <c r="H24">
         <v>27.905000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.61821974965229476</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>9.4606701308009328E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2052,8 +2531,16 @@
       <c r="H25">
         <v>77.995000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.69067796610169507</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.15635617667799209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2075,8 +2562,16 @@
       <c r="H26">
         <v>17.995000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>-6.2358833349700424E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>-1.1114198388440996E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2098,8 +2593,16 @@
       <c r="H27">
         <v>58.435000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.21481481481481496</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>9.9255583126550573E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -2121,8 +2624,16 @@
       <c r="H28">
         <v>53.335000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.68637803590285107</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.30374050810912151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -2144,8 +2655,16 @@
       <c r="H29">
         <v>44.145000000000003</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.21375661375661392</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>6.2634499943368296E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -2167,8 +2686,16 @@
       <c r="H30">
         <v>31.524999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.38830162085976039</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>7.5019825535289519E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2190,8 +2717,16 @@
       <c r="H31">
         <v>49.234999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.20842105263157898</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>1.2592667817609373E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -2213,11 +2748,31 @@
       <c r="H32">
         <v>39.450000000000003</v>
       </c>
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0.21247357293868918</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>0.26273764258555116</v>
+      </c>
+    </row>
+    <row r="35" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J35" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J36" s="3">
+        <f>AVERAGE(J3:K32)</f>
+        <v>0.17639841401071263</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,55 +2781,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002B6E8-5374-4998-94D3-D93E3D26C283}">
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K2"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -2299,6 +2857,14 @@
       <c r="H3">
         <v>17.965</v>
       </c>
+      <c r="J3">
+        <f>(C3-G3)/G3</f>
+        <v>-1.2127761767531281E-2</v>
+      </c>
+      <c r="K3">
+        <f>(D3-H3)/H3</f>
+        <v>9.128861675480103E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -2322,6 +2888,14 @@
       <c r="H4">
         <v>36.344999999999999</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J42" si="0">(C4-G4)/G4</f>
+        <v>0.23174603174603189</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K42" si="1">(D4-H4)/H4</f>
+        <v>1.3344338973724019E-2</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -2345,6 +2919,14 @@
       <c r="H5">
         <v>58.84</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>0.14861803352967834</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>3.8494221617946862E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -2368,6 +2950,14 @@
       <c r="H6">
         <v>35.200000000000003</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.2309322033898305</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>9.9431818181808479E-4</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -2391,6 +2981,14 @@
       <c r="H7">
         <v>78.724999999999994</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.48785638859556485</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.45582724674499853</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -2414,6 +3012,14 @@
       <c r="H8">
         <v>79.95</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.70519618239660642</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.13652282676672911</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -2437,6 +3043,14 @@
       <c r="H9">
         <v>44.994999999999997</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.23329798515376471</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>8.4787198577619849E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -2460,6 +3074,14 @@
       <c r="H10">
         <v>51.914999999999999</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.69978858350951345</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.20938071848213421</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -2483,6 +3105,14 @@
       <c r="H11">
         <v>18.38</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.23199152542372897</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-2.5843307943416643E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -2506,6 +3136,14 @@
       <c r="H12">
         <v>38.01</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>4.3682480037576313E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>1.1838989739542302E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -2529,6 +3167,14 @@
       <c r="H13">
         <v>28.515000000000001</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.69620253164556933</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>0.48185165702261973</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -2552,6 +3198,14 @@
       <c r="H14">
         <v>33.69</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>6.7552602436323481E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>7.3760759869397438E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -2575,6 +3229,14 @@
       <c r="H15">
         <v>71.7</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.23460721868365189</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>8.1311018131101781E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -2598,8 +3260,16 @@
       <c r="H16">
         <v>52.435000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.22938689217758981</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>8.4866978163440493E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -2621,8 +3291,16 @@
       <c r="H17">
         <v>42.31</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.22905620360551435</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.25265894587567944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -2644,8 +3322,16 @@
       <c r="H18">
         <v>64.66</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>7.4484944532487935E-3</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>8.3127126507887422E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2667,8 +3353,16 @@
       <c r="H19">
         <v>60.89</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.70307529162248139</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>0.21505994416160287</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -2690,8 +3384,16 @@
       <c r="H20">
         <v>31.41</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>3.2121126361964E-2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.2249283667621777</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -2713,8 +3415,16 @@
       <c r="H21">
         <v>63.71</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047622</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.57432114267775858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -2736,8 +3446,16 @@
       <c r="H22">
         <v>90.644999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.25680023398654583</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>2.371890341441895E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2759,8 +3477,16 @@
       <c r="H23">
         <v>30.07</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.48837209302325568</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>0.30462254738942457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2782,8 +3508,16 @@
       <c r="H24">
         <v>29.495000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.70519618239660642</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>0.22139345651805381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -2805,8 +3539,16 @@
       <c r="H25">
         <v>32.82</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.69799366420274522</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>0.26081657525898849</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2828,8 +3570,16 @@
       <c r="H26">
         <v>34.755000000000003</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.23174603174603189</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>-2.3018270752409847E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2851,8 +3601,16 @@
       <c r="H27">
         <v>77.685000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.15952662721893496</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.49655660680955144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2874,8 +3632,16 @@
       <c r="H28">
         <v>79.665000000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.28530742167867318</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.43601330571769281</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2897,8 +3663,16 @@
       <c r="H29">
         <v>34.89</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.70594479830148626</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>3.8119805101748304E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2920,8 +3694,16 @@
       <c r="H30">
         <v>28.635000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.47457627118644075</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.14562598218962799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2943,8 +3725,16 @@
       <c r="H31">
         <v>36.11</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.48994708994709008</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>0.12572694544447519</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2966,8 +3756,16 @@
       <c r="H32">
         <v>50.06</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0.30353870012688544</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>9.7882540950858937E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2989,8 +3787,16 @@
       <c r="H33">
         <v>41.69</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.48942917547568693</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.25329815303430087</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3012,8 +3818,16 @@
       <c r="H34">
         <v>59.854999999999997</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.23223753976670197</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>1.5537549076935924E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -3035,8 +3849,16 @@
       <c r="H35">
         <v>60.895000000000003</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.48994708994709008</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>6.5768946547335616E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -3058,8 +3880,16 @@
       <c r="H36">
         <v>44.445</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0.22703273495248136</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>-0.10788615142310724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3081,8 +3911,16 @@
       <c r="H37">
         <v>42.734999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.22808870116156282</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>0.30139230139230144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -3104,8 +3942,16 @@
       <c r="H38">
         <v>63.3</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>1.9524368761009957E-2</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>1.2085308056872048E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -3127,8 +3973,16 @@
       <c r="H39">
         <v>69.694999999999993</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0.70158730158730154</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>8.013487337685643E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>7</v>
       </c>
@@ -3150,8 +4004,16 @@
       <c r="H40">
         <v>34.545000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0.70444915254237295</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>0.13865971920683165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -3173,8 +4035,16 @@
       <c r="H41">
         <v>44.484999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0.23068783068783086</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>0.17657637405867155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -3196,11 +4066,31 @@
       <c r="H42">
         <v>55.44</v>
       </c>
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0.23068783068783086</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>8.1259018759018808E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J45" s="3">
+        <f>AVERAGE(J3:K42)</f>
+        <v>0.2523208580678134</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3209,55 +4099,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A16E61-9B29-465D-8B4B-E21AF31D5708}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -3282,6 +4175,14 @@
       <c r="H3">
         <v>59.14</v>
       </c>
+      <c r="J3">
+        <f>(C3-G3)/G3</f>
+        <v>0.19928186714542179</v>
+      </c>
+      <c r="K3">
+        <f>(D3-H3)/H3</f>
+        <v>6.0027054447074686E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -3305,6 +4206,14 @@
       <c r="H4">
         <v>66.47</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J52" si="0">(C4-G4)/G4</f>
+        <v>0.41188959660297247</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K52" si="1">(D4-H4)/H4</f>
+        <v>0.16435986159169547</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -3328,6 +4237,14 @@
       <c r="H5">
         <v>55.204999999999998</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>9.8400511836212373E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -3351,6 +4268,14 @@
       <c r="H6">
         <v>18.004999999999999</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.98939554612937453</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>-6.2482643710080533E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -3374,6 +4299,14 @@
       <c r="H7">
         <v>53.38</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.41014799154334025</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>0.26301985762457847</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -3397,6 +4330,14 @@
       <c r="H8">
         <v>83.08</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.41463414634146345</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>0.10465816080885902</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -3420,6 +4361,14 @@
       <c r="H9">
         <v>39.634999999999998</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.41164021164021175</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>0.17926075438375183</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -3443,6 +4392,14 @@
       <c r="H10">
         <v>29.785</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.9851851851851855</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>7.5205640423031669E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -3466,6 +4423,14 @@
       <c r="H11">
         <v>43.515000000000001</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.70052910052910067</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-2.9530047110191974E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -3489,6 +4454,14 @@
       <c r="H12">
         <v>85.62</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0.78880675818373813</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.11942303200186866</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -3512,6 +4485,14 @@
       <c r="H13">
         <v>59.84</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.98622881355932213</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>4.7627005347593482E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -3535,6 +4516,14 @@
       <c r="H14">
         <v>38.21</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.20110215495969735</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>-1.3478147081915743E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -3558,6 +4547,14 @@
       <c r="H15">
         <v>28.605</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>0.41313559322033905</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>-1.2934801608110506E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -3581,8 +4578,16 @@
       <c r="H16">
         <v>74.364999999999995</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>3.952759701132804E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>0.13184966045854915</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3604,8 +4609,16 @@
       <c r="H17">
         <v>34.64</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.1943171402383134</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>6.0190531177829125E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -3627,8 +4640,16 @@
       <c r="H18">
         <v>67.650000000000006</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.70127118644067787</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>0.13118994826311897</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3650,8 +4671,16 @@
       <c r="H19">
         <v>37.19</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.79069767441860461</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>5.8080129066953583E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -3673,8 +4702,16 @@
       <c r="H20">
         <v>44.854999999999997</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>0.98939554612937453</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>0.21257384906922314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -3696,8 +4733,16 @@
       <c r="H21">
         <v>42.975000000000001</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.70052910052910067</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>4.8283885980220959E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -3719,8 +4764,16 @@
       <c r="H22">
         <v>43.994999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>-5.4982400776793311E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>8.7168996476872401E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -3742,8 +4795,16 @@
       <c r="H23">
         <v>62.914999999999999</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.40909090909090895</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>-2.2888023523801919E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -3765,8 +4826,16 @@
       <c r="H24">
         <v>27.965</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>8.8157690516839859E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>1.9309851600214523E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -3788,8 +4857,16 @@
       <c r="H25">
         <v>17.97</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.25794995964487494</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>-1.0573177518085572E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -3811,8 +4888,16 @@
       <c r="H26">
         <v>74.78</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>0.41014799154334025</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>-0.11226263706873491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -3834,8 +4919,16 @@
       <c r="H27">
         <v>75.004999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.69767441860465085</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.12152523165122338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -3857,8 +4950,16 @@
       <c r="H28">
         <v>17.995000000000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.79639448568398752</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>0.28035565434843002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -3880,8 +4981,16 @@
       <c r="H29">
         <v>45.82</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>0.20989624900239406</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>0.14305979921431689</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -3903,8 +5012,16 @@
       <c r="H30">
         <v>34.375</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.70127118644067787</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>-2.0363636363636447E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -3926,8 +5043,16 @@
       <c r="H31">
         <v>87.08</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.15803615046409378</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>-1.2057877813505279E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -3949,8 +5074,16 @@
       <c r="H32">
         <v>40.195</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0.9914984059511156</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>7.0033586266948569E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -3972,8 +5105,16 @@
       <c r="H33">
         <v>62.76</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>0.4110169491525425</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>3.0114722753346205E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -3995,8 +5136,16 @@
       <c r="H34">
         <v>50.66</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.79449152542372903</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>3.6123174101855615E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -4018,8 +5167,16 @@
       <c r="H35">
         <v>44.65</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.16244171259008064</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>8.936170212765962E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -4041,8 +5198,16 @@
       <c r="H36">
         <v>28.19</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0.15099049766468028</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0.14969847463639571</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4064,10 +5229,18 @@
       <c r="H37">
         <v>66.165000000000006</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.98202959830866787</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>-1.1788710043074149E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>263.02499999999998</v>
@@ -4087,10 +5260,18 @@
       <c r="H38">
         <v>39.78</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.98202959830866787</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>0.34188034188034189</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>453.79500000000002</v>
@@ -4110,10 +5291,18 @@
       <c r="H39">
         <v>55.06</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0.14387080988500128</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>-5.4758445332364701E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>494.96499999999997</v>
@@ -4133,10 +5322,18 @@
       <c r="H40">
         <v>33.695</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0.17055903653674012</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>5.53494583766138E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>404.49</v>
@@ -4156,10 +5353,18 @@
       <c r="H41">
         <v>60.744999999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0.69767441860465085</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>6.1404230800888915E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>366.72500000000002</v>
@@ -4179,10 +5384,18 @@
       <c r="H42">
         <v>55.38</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0.70052910052910067</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>7.936078006500534E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>290.93</v>
@@ -4202,10 +5415,18 @@
       <c r="H43">
         <v>33.119999999999997</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>0.7243401759530792</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>2.7777777777777832E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>639.97</v>
@@ -4225,10 +5446,18 @@
       <c r="H44">
         <v>90.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0.1281762986282888</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>-0.22308546059933401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>535.92499999999995</v>
@@ -4248,10 +5477,18 @@
       <c r="H45">
         <v>33.454999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0.79259259259259285</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>1.1956359288596368E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>378.995</v>
@@ -4271,10 +5508,18 @@
       <c r="H46">
         <v>61.48</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0.70718816067653245</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>-2.3422251138581617E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>454.09</v>
@@ -4294,8 +5539,16 @@
       <c r="H47">
         <v>18.015000000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>0.22324723247232481</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>-2.6644462947543735E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -4317,8 +5570,16 @@
       <c r="H48">
         <v>35.700000000000003</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0.13661041819515754</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>3.8095238095238078E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -4340,8 +5601,16 @@
       <c r="H49">
         <v>94.564999999999998</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0.98202959830866787</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>1.0574736953423694E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>7</v>
       </c>
@@ -4363,8 +5632,16 @@
       <c r="H50">
         <v>70.72</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>9.9919159256265155E-2</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>4.8996040723981948E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -4386,8 +5663,16 @@
       <c r="H51">
         <v>77.534999999999997</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>0.98202959830866787</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>-4.2174501837879616E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -4409,11 +5694,31 @@
       <c r="H52">
         <v>60.744999999999997</v>
       </c>
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0.41014799154334025</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0.16536340439542363</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J55" s="3">
+        <f>AVERAGE(J3:K52)</f>
+        <v>0.28325928999046512</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4422,55 +5727,58 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55848B24-DB23-49B6-8250-12CB2A872164}">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="K68" sqref="K68"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
@@ -4495,6 +5803,14 @@
       <c r="H3">
         <v>46.545000000000002</v>
       </c>
+      <c r="J3">
+        <f>(C3-G3)/G3</f>
+        <v>0.13043980145446163</v>
+      </c>
+      <c r="K3">
+        <f>(D3-H3)/H3</f>
+        <v>8.1963691051670381E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -4518,6 +5834,14 @@
       <c r="H4">
         <v>39.524999999999999</v>
       </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J63" si="0">(C4-G4)/G4</f>
+        <v>0.1973870056497174</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K63" si="1">(D4-H4)/H4</f>
+        <v>0.12055660974067048</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
@@ -4541,6 +5865,14 @@
       <c r="H5">
         <v>33.685000000000002</v>
       </c>
+      <c r="J5">
+        <f t="shared" si="0"/>
+        <v>1.0879237288135595</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>0.32670328039186564</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -4564,6 +5896,14 @@
       <c r="H6">
         <v>94.62</v>
       </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>1.0868644067796611</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>2.7636863242443403E-2</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -4587,6 +5927,14 @@
       <c r="H7">
         <v>31.515000000000001</v>
       </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0.22047507527601193</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>4.9976201808662628E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -4610,6 +5958,14 @@
       <c r="H8">
         <v>71.56</v>
       </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.48047704623427551</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>1.4533258803800894E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -4633,6 +5989,14 @@
       <c r="H9">
         <v>76.69</v>
       </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>1.0780590717299576</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>9.3362889555352671E-2</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
@@ -4656,6 +6020,14 @@
       <c r="H10">
         <v>31.41</v>
       </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>0.11089706005528097</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>0.35816618911174775</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
@@ -4679,6 +6051,14 @@
       <c r="H11">
         <v>79.204999999999998</v>
       </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0.46251319957761339</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>5.5867685120888799E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
@@ -4702,6 +6082,14 @@
       <c r="H12">
         <v>42.34</v>
       </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>1.0867724867724868</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>0.12352385451110053</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
@@ -4725,6 +6113,14 @@
       <c r="H13">
         <v>27.664999999999999</v>
       </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0.8846560846560847</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>5.1509127055846766E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
@@ -4748,6 +6144,14 @@
       <c r="H14">
         <v>67.56</v>
       </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.24082934609250406</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="1"/>
+        <v>0.10183540556542325</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
@@ -4771,6 +6175,14 @@
       <c r="H15">
         <v>79.334999999999994</v>
       </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>4.3395988394096099E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="1"/>
+        <v>1.9852524106636453E-2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -4794,8 +6206,16 @@
       <c r="H16">
         <v>77.924999999999997</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>0.16920847948757076</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="1"/>
+        <v>2.5152390118703984E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -4817,8 +6237,16 @@
       <c r="H17">
         <v>62.935000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>0.46927966101694912</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>0.20640343211249693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -4840,8 +6268,16 @@
       <c r="H18">
         <v>62.93</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>0.28850768820549277</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>7.7864293659621775E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4863,8 +6299,16 @@
       <c r="H19">
         <v>46.174999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>0.5164527421236873</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>7.2550081212777506E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -4886,8 +6330,16 @@
       <c r="H20">
         <v>37.905000000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f t="shared" si="0"/>
+        <v>1.4781073446327686</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>5.1180583036538656E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -4909,8 +6361,16 @@
       <c r="H21">
         <v>38.33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f t="shared" si="0"/>
+        <v>0.46716101694915257</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>0.46699713018523348</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -4932,8 +6392,16 @@
       <c r="H22">
         <v>37.064999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <f t="shared" si="0"/>
+        <v>0.3577282412719226</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>-0.12275731822474026</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -4955,8 +6423,16 @@
       <c r="H23">
         <v>76.72</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <f t="shared" si="0"/>
+        <v>0.29890363531448377</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>-5.2593847758081291E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -4978,8 +6454,16 @@
       <c r="H24">
         <v>50.84</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <f t="shared" si="0"/>
+        <v>0.18493150684931495</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>1.9669551534221106E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -5001,8 +6485,16 @@
       <c r="H25">
         <v>95.06</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.93572181243414121</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>5.6858826004628667E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -5024,8 +6516,16 @@
       <c r="H26">
         <v>94.56</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <f t="shared" si="0"/>
+        <v>5.5458167330677356E-2</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>-6.3240270727580414E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -5047,8 +6547,16 @@
       <c r="H27">
         <v>31.99</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <f t="shared" si="0"/>
+        <v>0.36075642476159692</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.24960925289152872</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -5070,8 +6578,16 @@
       <c r="H28">
         <v>17.965</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <f t="shared" si="0"/>
+        <v>0.46511627906976727</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="1"/>
+        <v>-3.3954912329529609E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -5093,8 +6609,16 @@
       <c r="H29">
         <v>50.695</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f t="shared" si="0"/>
+        <v>1.7020394054614587</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="1"/>
+        <v>2.9194200611500087E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -5116,8 +6640,16 @@
       <c r="H30">
         <v>66.94</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f t="shared" si="0"/>
+        <v>0.39968152866242046</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="1"/>
+        <v>0.20279354645951603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -5139,8 +6671,16 @@
       <c r="H31">
         <v>17.975000000000001</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <f t="shared" si="0"/>
+        <v>0.8202247191011236</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="1"/>
+        <v>-5.1182197496523037E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -5162,8 +6702,16 @@
       <c r="H32">
         <v>44.21</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <f t="shared" si="0"/>
+        <v>0.46822033898305088</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="1"/>
+        <v>8.7197466636507501E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -5185,8 +6733,16 @@
       <c r="H33">
         <v>34.734999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>1.0835978835978839</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="1"/>
+        <v>0.25406650352670224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -5208,8 +6764,16 @@
       <c r="H34">
         <v>75.27</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <f t="shared" si="0"/>
+        <v>0.12758007117437711</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="1"/>
+        <v>5.1614188919888469E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -5231,8 +6795,16 @@
       <c r="H35">
         <v>41.435000000000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <f t="shared" si="0"/>
+        <v>0.46871686108165428</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="1"/>
+        <v>0.20152045372269806</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -5254,8 +6826,16 @@
       <c r="H36">
         <v>38.784999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <f t="shared" si="0"/>
+        <v>0.46871686108165428</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="1"/>
+        <v>0.11280134072450691</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -5277,10 +6857,18 @@
       <c r="H37">
         <v>36.295000000000002</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <f t="shared" si="0"/>
+        <v>0.46349206349206362</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="1"/>
+        <v>4.8216007714561235E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>333.87</v>
@@ -5300,10 +6888,18 @@
       <c r="H38">
         <v>30.704999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <f t="shared" si="0"/>
+        <v>0.29761190447617902</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="1"/>
+        <v>9.3795798729848653E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>390.565</v>
@@ -5323,10 +6919,18 @@
       <c r="H39">
         <v>52.935000000000002</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <f t="shared" si="0"/>
+        <v>0.20960397405823097</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="1"/>
+        <v>4.5338622839331225E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>504.01</v>
@@ -5346,10 +6950,18 @@
       <c r="H40">
         <v>59.414999999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <f t="shared" si="0"/>
+        <v>0.65048220818091129</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="1"/>
+        <v>9.2064293528570332E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>538.42999999999995</v>
@@ -5369,10 +6981,18 @@
       <c r="H41">
         <v>35.865000000000002</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>0.88135593220339015</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="1"/>
+        <v>4.0150564617314866E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>755.86500000000001</v>
@@ -5392,10 +7012,18 @@
       <c r="H42">
         <v>44.835000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <f t="shared" si="0"/>
+        <v>0.88359788359788383</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="1"/>
+        <v>7.0146091223374507E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>310.10000000000002</v>
@@ -5415,10 +7043,18 @@
       <c r="H43">
         <v>62.41</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <f t="shared" si="0"/>
+        <v>1.085805084745763</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="1"/>
+        <v>0.36083960903701351</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>340.815</v>
@@ -5438,10 +7074,18 @@
       <c r="H44">
         <v>32.755000000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <f t="shared" si="0"/>
+        <v>0.94803817603393437</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="1"/>
+        <v>0.1789039841245611</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>578.4</v>
@@ -5461,10 +7105,18 @@
       <c r="H45">
         <v>64.275000000000006</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <f t="shared" si="0"/>
+        <v>0.88160676532769544</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="1"/>
+        <v>4.3951769739400834E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>400.42</v>
@@ -5484,10 +7136,18 @@
       <c r="H46">
         <v>94.525000000000006</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <f t="shared" si="0"/>
+        <v>0.91525423728813549</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="1"/>
+        <v>5.2049722295688834E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>242.89</v>
@@ -5507,8 +7167,16 @@
       <c r="H47">
         <v>23.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <f t="shared" si="0"/>
+        <v>1.0726315789473686</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="1"/>
+        <v>0.33781512605042013</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -5530,10 +7198,18 @@
       <c r="H48">
         <v>17.96</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J48">
+        <f t="shared" si="0"/>
+        <v>0.47033898305084759</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="1"/>
+        <v>-3.3407572383073576E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>325.79000000000002</v>
@@ -5553,10 +7229,18 @@
       <c r="H49">
         <v>29.605</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J49">
+        <f t="shared" si="0"/>
+        <v>0.366464339908953</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="1"/>
+        <v>0.10859652085796317</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>386.27</v>
@@ -5576,10 +7260,18 @@
       <c r="H50">
         <v>62.66</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <f t="shared" si="0"/>
+        <v>1.0846560846560847</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="1"/>
+        <v>0.21257580593680192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>313.435</v>
@@ -5599,10 +7291,18 @@
       <c r="H51">
         <v>24.344999999999999</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J51">
+        <f t="shared" si="0"/>
+        <v>1.1224639452456613</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="1"/>
+        <v>-4.7237625795851251E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>308.68</v>
@@ -5622,10 +7322,18 @@
       <c r="H52">
         <v>29.38</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J52">
+        <f t="shared" si="0"/>
+        <v>0.87869198312236263</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="1"/>
+        <v>0.36147038801906062</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>406.875</v>
@@ -5645,10 +7353,18 @@
       <c r="H53">
         <v>79.284999999999997</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J53">
+        <f t="shared" si="0"/>
+        <v>0.94491525423728817</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="1"/>
+        <v>2.5225452481554248E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>323.69499999999999</v>
@@ -5668,10 +7384,18 @@
       <c r="H54">
         <v>18.004999999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J54">
+        <f t="shared" si="0"/>
+        <v>0.8846560846560847</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="1"/>
+        <v>-4.7209108580949621E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>393.435</v>
@@ -5691,10 +7415,18 @@
       <c r="H55">
         <v>28.625</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J55">
+        <f t="shared" si="0"/>
+        <v>0.61285418106427103</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="1"/>
+        <v>0.18270742358078593</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>389.16500000000002</v>
@@ -5714,10 +7446,18 @@
       <c r="H56">
         <v>81.900000000000006</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J56">
+        <f t="shared" si="0"/>
+        <v>0.79559748427672961</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>0.1034188034188034</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>385.1</v>
@@ -5737,10 +7477,18 @@
       <c r="H57">
         <v>47.51</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J57">
+        <f t="shared" si="0"/>
+        <v>1.9005291005291005</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="1"/>
+        <v>-9.3664491685960909E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>349.05500000000001</v>
@@ -5760,8 +7508,16 @@
       <c r="H58">
         <v>50.604999999999997</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J58">
+        <f t="shared" si="0"/>
+        <v>0.91428571428571437</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="1"/>
+        <v>3.3988736290880471E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -5783,8 +7539,16 @@
       <c r="H59">
         <v>61.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J59">
+        <f t="shared" si="0"/>
+        <v>8.9264974282395923E-2</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="1"/>
+        <v>0.22804878048780497</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -5806,8 +7570,16 @@
       <c r="H60">
         <v>90.73</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J60">
+        <f t="shared" si="0"/>
+        <v>0.32225315212051742</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="1"/>
+        <v>4.9928358866967934E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -5829,8 +7601,16 @@
       <c r="H61">
         <v>34.784999999999997</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J61">
+        <f t="shared" si="0"/>
+        <v>0.46772486772486777</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="1"/>
+        <v>-4.08221934741985E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -5852,11 +7632,31 @@
       <c r="H62">
         <v>75.37</v>
       </c>
+      <c r="J62">
+        <f t="shared" si="0"/>
+        <v>0.46511627906976727</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="1"/>
+        <v>0.17633010481623976</v>
+      </c>
+    </row>
+    <row r="65" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J65" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66" spans="10:10" x14ac:dyDescent="0.45">
+      <c r="J66" s="3">
+        <f>AVERAGE(J3:K63)</f>
+        <v>0.36832223944623138</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5865,58 +7665,67 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26FB8DE-947C-489D-AA5C-0B528FDCA3AE}">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="F1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D2" t="s">
-        <v>44</v>
-      </c>
       <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
         <v>42</v>
       </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>44</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -5938,8 +7747,25 @@
       <c r="H3">
         <v>49.475000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J3">
+        <f>(C3-G3)/G3</f>
+        <v>-1.1363636363636277E-2</v>
+      </c>
+      <c r="K3">
+        <f>(D3-H3)/H3</f>
+        <v>0.18746841839312781</v>
+      </c>
+      <c r="N3">
+        <v>306.29500000000002</v>
+      </c>
+      <c r="O3">
+        <v>5.29</v>
+      </c>
+      <c r="P3">
+        <v>59.335000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5961,8 +7787,25 @@
       <c r="H4">
         <v>35.81</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J4">
+        <f>(C4-G4)/G4</f>
+        <v>0.19703389830508489</v>
+      </c>
+      <c r="K4">
+        <f>(D4-H4)/H4</f>
+        <v>-0.10541748115051677</v>
+      </c>
+      <c r="N4">
+        <v>324.315</v>
+      </c>
+      <c r="O4">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="P4">
+        <v>33.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -5984,8 +7827,25 @@
       <c r="H5">
         <v>44.29</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J5">
+        <f>(C5-G5)/G5</f>
+        <v>0.19238900634249453</v>
+      </c>
+      <c r="K5">
+        <f>(D5-H5)/H5</f>
+        <v>1.0160307067058412E-3</v>
+      </c>
+      <c r="N5">
+        <v>249.96</v>
+      </c>
+      <c r="O5">
+        <v>5.28</v>
+      </c>
+      <c r="P5">
+        <v>44.325000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -6007,8 +7867,25 @@
       <c r="H6">
         <v>39.82</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J6">
+        <f>(C6-G6)/G6</f>
+        <v>0.19491525423728814</v>
+      </c>
+      <c r="K6">
+        <f>(D6-H6)/H6</f>
+        <v>0.61501757910597699</v>
+      </c>
+      <c r="N6">
+        <v>259.27</v>
+      </c>
+      <c r="O6">
+        <v>5.28</v>
+      </c>
+      <c r="P6">
+        <v>53.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -6030,8 +7907,25 @@
       <c r="H7">
         <v>33.734999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J7">
+        <f>(C7-G7)/G7</f>
+        <v>0.69597457627118664</v>
+      </c>
+      <c r="K7">
+        <f>(D7-H7)/H7</f>
+        <v>0.24055135615829265</v>
+      </c>
+      <c r="N7">
+        <v>408.92</v>
+      </c>
+      <c r="O7">
+        <v>7.58</v>
+      </c>
+      <c r="P7">
+        <v>46.454999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -6053,8 +7947,25 @@
       <c r="H8">
         <v>40.92</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J8">
+        <f>(C8-G8)/G8</f>
+        <v>0.47463002114164882</v>
+      </c>
+      <c r="K8">
+        <f>(D8-H8)/H8</f>
+        <v>5.4130009775170976E-2</v>
+      </c>
+      <c r="N8">
+        <v>702.31500000000005</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>46.204999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -6076,8 +7987,25 @@
       <c r="H9">
         <v>50.11</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J9">
+        <f>(C9-G9)/G9</f>
+        <v>0.69671261930010608</v>
+      </c>
+      <c r="K9">
+        <f>(D9-H9)/H9</f>
+        <v>0.37537417681101581</v>
+      </c>
+      <c r="N9">
+        <v>310.95499999999998</v>
+      </c>
+      <c r="O9">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="P9">
+        <v>56.704999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -6099,8 +8027,25 @@
       <c r="H10">
         <v>86.575000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J10">
+        <f>(C10-G10)/G10</f>
+        <v>0.69206349206349216</v>
+      </c>
+      <c r="K10">
+        <f>(D10-H10)/H10</f>
+        <v>4.620271440946236E-4</v>
+      </c>
+      <c r="N10">
+        <v>606.68499999999995</v>
+      </c>
+      <c r="O10">
+        <v>7.57</v>
+      </c>
+      <c r="P10">
+        <v>85.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -6122,8 +8067,25 @@
       <c r="H11">
         <v>29.035</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J11">
+        <f>(C11-G11)/G11</f>
+        <v>7.5402379286214183E-2</v>
+      </c>
+      <c r="K11">
+        <f>(D11-H11)/H11</f>
+        <v>9.1269157912863986E-3</v>
+      </c>
+      <c r="N11">
+        <v>406.33</v>
+      </c>
+      <c r="O11">
+        <v>62.284999999999997</v>
+      </c>
+      <c r="P11">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -6145,8 +8107,25 @@
       <c r="H12">
         <v>58.034999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J12">
+        <f>(C12-G12)/G12</f>
+        <v>0.55720338983050843</v>
+      </c>
+      <c r="K12">
+        <f>(D12-H12)/H12</f>
+        <v>0.22193503920048266</v>
+      </c>
+      <c r="N12">
+        <v>501.35</v>
+      </c>
+      <c r="O12">
+        <v>7.0350000000000001</v>
+      </c>
+      <c r="P12">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -6168,8 +8147,25 @@
       <c r="H13">
         <v>45.774999999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J13">
+        <f>(C13-G13)/G13</f>
+        <v>0.19491525423728814</v>
+      </c>
+      <c r="K13">
+        <f>(D13-H13)/H13</f>
+        <v>9.6886947023484493E-2</v>
+      </c>
+      <c r="N13">
+        <v>256.26</v>
+      </c>
+      <c r="O13">
+        <v>5.28</v>
+      </c>
+      <c r="P13">
+        <v>50.625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -6191,8 +8187,25 @@
       <c r="H14">
         <v>33.685000000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J14">
+        <f>(C14-G14)/G14</f>
+        <v>0.20715907573126741</v>
+      </c>
+      <c r="K14">
+        <f>(D14-H14)/H14</f>
+        <v>0.46326257978328622</v>
+      </c>
+      <c r="N14">
+        <v>350.255</v>
+      </c>
+      <c r="O14">
+        <v>45.225000000000001</v>
+      </c>
+      <c r="P14">
+        <v>38.905000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -6214,8 +8227,25 @@
       <c r="H15">
         <v>93.344999999999999</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J15">
+        <f>(C15-G15)/G15</f>
+        <v>0.19385593220338984</v>
+      </c>
+      <c r="K15">
+        <f>(D15-H15)/H15</f>
+        <v>0.24457657078579462</v>
+      </c>
+      <c r="N15">
+        <v>315.77</v>
+      </c>
+      <c r="O15">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="P15">
+        <v>110.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -6237,8 +8267,25 @@
       <c r="H16">
         <v>63.685000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J16">
+        <f>(C16-G16)/G16</f>
+        <v>0.50105708245243108</v>
+      </c>
+      <c r="K16">
+        <f>(D16-H16)/H16</f>
+        <v>-8.6362565753316661E-4</v>
+      </c>
+      <c r="N16">
+        <v>506.32499999999999</v>
+      </c>
+      <c r="O16">
+        <v>6.96</v>
+      </c>
+      <c r="P16">
+        <v>69.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -6260,8 +8307,25 @@
       <c r="H17">
         <v>29.08</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J17">
+        <f>(C17-G17)/G17</f>
+        <v>0.19491525423728814</v>
+      </c>
+      <c r="K17">
+        <f>(D17-H17)/H17</f>
+        <v>8.854883081155443E-2</v>
+      </c>
+      <c r="N17">
+        <v>406.71499999999997</v>
+      </c>
+      <c r="O17">
+        <v>5.28</v>
+      </c>
+      <c r="P17">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -6283,8 +8347,25 @@
       <c r="H18">
         <v>18.015000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J18">
+        <f>(C18-G18)/G18</f>
+        <v>0.49894067796610181</v>
+      </c>
+      <c r="K18">
+        <f>(D18-H18)/H18</f>
+        <v>-6.3835692478491253E-3</v>
+      </c>
+      <c r="N18">
+        <v>344.29</v>
+      </c>
+      <c r="O18">
+        <v>6.98</v>
+      </c>
+      <c r="P18">
+        <v>24.18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -6306,8 +8387,25 @@
       <c r="H19">
         <v>74.930000000000007</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J19">
+        <f>(C19-G19)/G19</f>
+        <v>0.68210526315789477</v>
+      </c>
+      <c r="K19">
+        <f>(D19-H19)/H19</f>
+        <v>0.19798478580007997</v>
+      </c>
+      <c r="N19">
+        <v>308.125</v>
+      </c>
+      <c r="O19">
+        <v>7.57</v>
+      </c>
+      <c r="P19">
+        <v>89.295000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -6329,8 +8427,25 @@
       <c r="H20">
         <v>72.11</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J20">
+        <f>(C20-G20)/G20</f>
+        <v>0.19133192389006326</v>
+      </c>
+      <c r="K20">
+        <f>(D20-H20)/H20</f>
+        <v>8.8614616558036347E-2</v>
+      </c>
+      <c r="N20">
+        <v>508.67500000000001</v>
+      </c>
+      <c r="O20">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="P20">
+        <v>77.655000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -6352,8 +8467,25 @@
       <c r="H21">
         <v>31.25</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J21">
+        <f>(C21-G21)/G21</f>
+        <v>0.68493150684931503</v>
+      </c>
+      <c r="K21">
+        <f>(D21-H21)/H21</f>
+        <v>0.56559999999999988</v>
+      </c>
+      <c r="N21">
+        <v>406.71</v>
+      </c>
+      <c r="O21">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="P21">
+        <v>42.435000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -6375,8 +8507,25 @@
       <c r="H22">
         <v>47.354999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J22">
+        <f>(C22-G22)/G22</f>
+        <v>-2.2723940771147887E-2</v>
+      </c>
+      <c r="K22">
+        <f>(D22-H22)/H22</f>
+        <v>4.698553479041287E-2</v>
+      </c>
+      <c r="N22">
+        <v>569.10500000000002</v>
+      </c>
+      <c r="O22">
+        <v>33.6</v>
+      </c>
+      <c r="P22">
+        <v>47.354999999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -6398,8 +8547,25 @@
       <c r="H23">
         <v>17.96</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J23">
+        <f>(C23-G23)/G23</f>
+        <v>0.19112988384371685</v>
+      </c>
+      <c r="K23">
+        <f>(D23-H23)/H23</f>
+        <v>-4.4543429844099026E-3</v>
+      </c>
+      <c r="N23">
+        <v>223.64</v>
+      </c>
+      <c r="O23">
+        <v>5.28</v>
+      </c>
+      <c r="P23">
+        <v>18.024999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -6421,8 +8587,25 @@
       <c r="H24">
         <v>70.53</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J24">
+        <f>(C24-G24)/G24</f>
+        <v>0.49683544303797456</v>
+      </c>
+      <c r="K24">
+        <f>(D24-H24)/H24</f>
+        <v>5.7493265277186907E-2</v>
+      </c>
+      <c r="N24">
+        <v>436.42</v>
+      </c>
+      <c r="O24">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="P24">
+        <v>71.775000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -6444,8 +8627,25 @@
       <c r="H25">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J25">
+        <f>(C25-G25)/G25</f>
+        <v>0.68921775898520077</v>
+      </c>
+      <c r="K25">
+        <f>(D25-H25)/H25</f>
+        <v>0.46440677966101696</v>
+      </c>
+      <c r="N25">
+        <v>306.14499999999998</v>
+      </c>
+      <c r="O25">
+        <v>7.57</v>
+      </c>
+      <c r="P25">
+        <v>35.520000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -6467,8 +8667,25 @@
       <c r="H26">
         <v>40.049999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J26">
+        <f>(C26-G26)/G26</f>
+        <v>0.19576719576719592</v>
+      </c>
+      <c r="K26">
+        <f>(D26-H26)/H26</f>
+        <v>6.5293383270911415E-2</v>
+      </c>
+      <c r="N26">
+        <v>406.47</v>
+      </c>
+      <c r="O26">
+        <v>5.2850000000000001</v>
+      </c>
+      <c r="P26">
+        <v>43.395000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -6490,8 +8707,25 @@
       <c r="H27">
         <v>52.674999999999997</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J27">
+        <f>(C27-G27)/G27</f>
+        <v>0.68848996832101361</v>
+      </c>
+      <c r="K27">
+        <f>(D27-H27)/H27</f>
+        <v>0.43844328429046037</v>
+      </c>
+      <c r="N27">
+        <v>306.16500000000002</v>
+      </c>
+      <c r="O27">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="P27">
+        <v>73.08</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -6513,8 +8747,25 @@
       <c r="H28">
         <v>60.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J28">
+        <f>(C28-G28)/G28</f>
+        <v>0.47513227513227518</v>
+      </c>
+      <c r="K28">
+        <f>(D28-H28)/H28</f>
+        <v>0.13597359735973599</v>
+      </c>
+      <c r="N28">
+        <v>351.27499999999998</v>
+      </c>
+      <c r="O28">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="P28">
+        <v>69.38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -6536,8 +8787,25 @@
       <c r="H29">
         <v>50.84</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J29">
+        <f>(C29-G29)/G29</f>
+        <v>0.69027484143763196</v>
+      </c>
+      <c r="K29">
+        <f>(D29-H29)/H29</f>
+        <v>6.294256490951998E-2</v>
+      </c>
+      <c r="N29">
+        <v>262</v>
+      </c>
+      <c r="O29">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="P29">
+        <v>54.075000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -6559,8 +8827,25 @@
       <c r="H30">
         <v>70.415000000000006</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J30">
+        <f>(C30-G30)/G30</f>
+        <v>0.49999999999999983</v>
+      </c>
+      <c r="K30">
+        <f>(D30-H30)/H30</f>
+        <v>7.910246396364401E-2</v>
+      </c>
+      <c r="N30">
+        <v>474.66</v>
+      </c>
+      <c r="O30">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="P30">
+        <v>71.150000000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -6582,8 +8867,25 @@
       <c r="H31">
         <v>79.245000000000005</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J31">
+        <f>(C31-G31)/G31</f>
+        <v>0.13991935483870963</v>
+      </c>
+      <c r="K31">
+        <f>(D31-H31)/H31</f>
+        <v>8.5809830273202419E-3</v>
+      </c>
+      <c r="N31">
+        <v>609.34500000000003</v>
+      </c>
+      <c r="O31">
+        <v>42.494999999999997</v>
+      </c>
+      <c r="P31">
+        <v>78.745000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -6605,8 +8907,25 @@
       <c r="H32">
         <v>71.459999999999994</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J32">
+        <f>(C32-G32)/G32</f>
+        <v>0.47201689545934516</v>
+      </c>
+      <c r="K32">
+        <f>(D32-H32)/H32</f>
+        <v>3.3585222502100351E-3</v>
+      </c>
+      <c r="N32">
+        <v>704.41</v>
+      </c>
+      <c r="O32">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="P32">
+        <v>74.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -6628,8 +8947,25 @@
       <c r="H33">
         <v>33.72</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J33">
+        <f>(C33-G33)/G33</f>
+        <v>0.19238900634249453</v>
+      </c>
+      <c r="K33">
+        <f>(D33-H33)/H33</f>
+        <v>0.41577698695136428</v>
+      </c>
+      <c r="N33">
+        <v>245.97499999999999</v>
+      </c>
+      <c r="O33">
+        <v>5.28</v>
+      </c>
+      <c r="P33">
+        <v>40.340000000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -6651,8 +8987,25 @@
       <c r="H34">
         <v>66.069999999999993</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J34">
+        <f>(C34-G34)/G34</f>
+        <v>7.5241960661879381E-2</v>
+      </c>
+      <c r="K34">
+        <f>(D34-H34)/H34</f>
+        <v>5.6757983956409871E-3</v>
+      </c>
+      <c r="N34">
+        <v>699.42499999999995</v>
+      </c>
+      <c r="O34">
+        <v>34.92</v>
+      </c>
+      <c r="P34">
+        <v>66.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -6674,8 +9027,25 @@
       <c r="H35">
         <v>63.265000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J35">
+        <f>(C35-G35)/G35</f>
+        <v>0.49999999999999983</v>
+      </c>
+      <c r="K35">
+        <f>(D35-H35)/H35</f>
+        <v>0.15000395163202396</v>
+      </c>
+      <c r="N35">
+        <v>503.6</v>
+      </c>
+      <c r="O35">
+        <v>6.96</v>
+      </c>
+      <c r="P35">
+        <v>67.534999999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -6697,8 +9067,25 @@
       <c r="H36">
         <v>43.255000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J36">
+        <f>(C36-G36)/G36</f>
+        <v>0.49525816649104309</v>
+      </c>
+      <c r="K36">
+        <f>(D36-H36)/H36</f>
+        <v>-2.5430586059414961E-3</v>
+      </c>
+      <c r="N36">
+        <v>304.315</v>
+      </c>
+      <c r="O36">
+        <v>6.96</v>
+      </c>
+      <c r="P36">
+        <v>44.024999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -6720,10 +9107,27 @@
       <c r="H37">
         <v>44.88</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J37">
+        <f>(C37-G37)/G37</f>
+        <v>0.69417989417989445</v>
+      </c>
+      <c r="K37">
+        <f>(D37-H37)/H37</f>
+        <v>0.26336898395721925</v>
+      </c>
+      <c r="N37">
+        <v>507.46</v>
+      </c>
+      <c r="O37">
+        <v>7.58</v>
+      </c>
+      <c r="P37">
+        <v>54.14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>471.51</v>
@@ -6743,10 +9147,27 @@
       <c r="H38">
         <v>52.45</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J38">
+        <f>(C38-G38)/G38</f>
+        <v>1.7607042817126949E-2</v>
+      </c>
+      <c r="K38">
+        <f>(D38-H38)/H38</f>
+        <v>0.24928503336510968</v>
+      </c>
+      <c r="N38">
+        <v>360.13</v>
+      </c>
+      <c r="O38">
+        <v>37.954999999999998</v>
+      </c>
+      <c r="P38">
+        <v>50.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>431.92</v>
@@ -6766,10 +9187,27 @@
       <c r="H39">
         <v>56.475000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J39">
+        <f>(C39-G39)/G39</f>
+        <v>0.54794520547945191</v>
+      </c>
+      <c r="K39">
+        <f>(D39-H39)/H39</f>
+        <v>1.0358565737051807E-2</v>
+      </c>
+      <c r="N39">
+        <v>557.15499999999997</v>
+      </c>
+      <c r="O39">
+        <v>7.0149999999999997</v>
+      </c>
+      <c r="P39">
+        <v>55.95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>433.37</v>
@@ -6789,10 +9227,27 @@
       <c r="H40">
         <v>67.775000000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J40">
+        <f>(C40-G40)/G40</f>
+        <v>0.13414141414141406</v>
+      </c>
+      <c r="K40">
+        <f>(D40-H40)/H40</f>
+        <v>0.18590925857617105</v>
+      </c>
+      <c r="N40">
+        <v>466.71</v>
+      </c>
+      <c r="O40">
+        <v>46.305</v>
+      </c>
+      <c r="P40">
+        <v>65.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B41">
         <v>403.29</v>
@@ -6812,10 +9267,27 @@
       <c r="H41">
         <v>73.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J41">
+        <f>(C41-G41)/G41</f>
+        <v>0.49683544303797456</v>
+      </c>
+      <c r="K41">
+        <f>(D41-H41)/H41</f>
+        <v>0.20170068027210888</v>
+      </c>
+      <c r="N41">
+        <v>303.245</v>
+      </c>
+      <c r="O41">
+        <v>6.9550000000000001</v>
+      </c>
+      <c r="P41">
+        <v>87.995000000000005</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>352.69499999999999</v>
@@ -6835,10 +9307,27 @@
       <c r="H42">
         <v>44.77</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J42">
+        <f>(C42-G42)/G42</f>
+        <v>0.49313621964097143</v>
+      </c>
+      <c r="K42">
+        <f>(D42-H42)/H42</f>
+        <v>3.8083538083538045E-2</v>
+      </c>
+      <c r="N42">
+        <v>745.31</v>
+      </c>
+      <c r="O42">
+        <v>6.98</v>
+      </c>
+      <c r="P42">
+        <v>45.284999999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B43">
         <v>401.82499999999999</v>
@@ -6858,10 +9347,27 @@
       <c r="H43">
         <v>17.995000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J43">
+        <f>(C43-G43)/G43</f>
+        <v>0.47669491525423729</v>
+      </c>
+      <c r="K43">
+        <f>(D43-H43)/H43</f>
+        <v>-3.3342595165324965E-3</v>
+      </c>
+      <c r="N43">
+        <v>619.53</v>
+      </c>
+      <c r="O43">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="P43">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B44">
         <v>356.58</v>
@@ -6881,10 +9387,27 @@
       <c r="H44">
         <v>34.729999999999997</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J44">
+        <f>(C44-G44)/G44</f>
+        <v>0.10160427807486629</v>
+      </c>
+      <c r="K44">
+        <f>(D44-H44)/H44</f>
+        <v>0.21278433630866689</v>
+      </c>
+      <c r="N44">
+        <v>441.81</v>
+      </c>
+      <c r="O44">
+        <v>39.57</v>
+      </c>
+      <c r="P44">
+        <v>34.270000000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>474.34</v>
@@ -6904,10 +9427,27 @@
       <c r="H45">
         <v>67.805000000000007</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J45">
+        <f>(C45-G45)/G45</f>
+        <v>0.27303709529427184</v>
+      </c>
+      <c r="K45">
+        <f>(D45-H45)/H45</f>
+        <v>0.10692426812181992</v>
+      </c>
+      <c r="N45">
+        <v>498.11</v>
+      </c>
+      <c r="O45">
+        <v>49.22</v>
+      </c>
+      <c r="P45">
+        <v>66.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B46">
         <v>458.755</v>
@@ -6927,10 +9467,27 @@
       <c r="H46">
         <v>66.41</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J46">
+        <f>(C46-G46)/G46</f>
+        <v>0.55260361317747064</v>
+      </c>
+      <c r="K46">
+        <f>(D46-H46)/H46</f>
+        <v>-0.10374943532600503</v>
+      </c>
+      <c r="N46">
+        <v>363.55</v>
+      </c>
+      <c r="O46">
+        <v>7.0049999999999999</v>
+      </c>
+      <c r="P46">
+        <v>67.234999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>365.28500000000003</v>
@@ -6950,8 +9507,25 @@
       <c r="H47">
         <v>52.52</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J47">
+        <f>(C47-G47)/G47</f>
+        <v>0.4777542372881356</v>
+      </c>
+      <c r="K47">
+        <f>(D47-H47)/H47</f>
+        <v>2.1039603960395978E-2</v>
+      </c>
+      <c r="N47">
+        <v>455.72500000000002</v>
+      </c>
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <v>52.42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -6973,10 +9547,27 @@
       <c r="H48">
         <v>63.045000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J48">
+        <f>(C48-G48)/G48</f>
+        <v>0.19344608879492581</v>
+      </c>
+      <c r="K48">
+        <f>(D48-H48)/H48</f>
+        <v>0.24403204060591649</v>
+      </c>
+      <c r="N48">
+        <v>306.18</v>
+      </c>
+      <c r="O48">
+        <v>5.28</v>
+      </c>
+      <c r="P48">
+        <v>74.355000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>418.565</v>
@@ -6996,10 +9587,27 @@
       <c r="H49">
         <v>58.42</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J49">
+        <f>(C49-G49)/G49</f>
+        <v>0.47669491525423729</v>
+      </c>
+      <c r="K49">
+        <f>(D49-H49)/H49</f>
+        <v>0.42725094145840453</v>
+      </c>
+      <c r="N49">
+        <v>401.83</v>
+      </c>
+      <c r="O49">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="P49">
+        <v>66.510000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B50">
         <v>371.56</v>
@@ -7019,10 +9627,27 @@
       <c r="H50">
         <v>70.31</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J50">
+        <f>(C50-G50)/G50</f>
+        <v>0.12934819317798035</v>
+      </c>
+      <c r="K50">
+        <f>(D50-H50)/H50</f>
+        <v>6.3717821078082826E-2</v>
+      </c>
+      <c r="N50">
+        <v>371.64</v>
+      </c>
+      <c r="O50">
+        <v>33.744999999999997</v>
+      </c>
+      <c r="P50">
+        <v>74.98</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51">
         <v>331.02499999999998</v>
@@ -7042,10 +9667,27 @@
       <c r="H51">
         <v>31.84</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J51">
+        <f>(C51-G51)/G51</f>
+        <v>3.942905596382125E-2</v>
+      </c>
+      <c r="K51">
+        <f>(D51-H51)/H51</f>
+        <v>-5.8888190954773871E-2</v>
+      </c>
+      <c r="N51">
+        <v>336.73500000000001</v>
+      </c>
+      <c r="O51">
+        <v>37.555</v>
+      </c>
+      <c r="P51">
+        <v>37.97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>262.89499999999998</v>
@@ -7065,10 +9707,27 @@
       <c r="H52">
         <v>44.97</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J52">
+        <f>(C52-G52)/G52</f>
+        <v>0.55095541401273884</v>
+      </c>
+      <c r="K52">
+        <f>(D52-H52)/H52</f>
+        <v>0.23448965977318217</v>
+      </c>
+      <c r="N52">
+        <v>257.745</v>
+      </c>
+      <c r="O52">
+        <v>7.01</v>
+      </c>
+      <c r="P52">
+        <v>50.295000000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B53">
         <v>369.685</v>
@@ -7088,10 +9747,27 @@
       <c r="H53">
         <v>40.42</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J53">
+        <f>(C53-G53)/G53</f>
+        <v>0.47669491525423729</v>
+      </c>
+      <c r="K53">
+        <f>(D53-H53)/H53</f>
+        <v>0.23280554181098456</v>
+      </c>
+      <c r="N53">
+        <v>469.04500000000002</v>
+      </c>
+      <c r="O53">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="P53">
+        <v>47.63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B54">
         <v>438.11</v>
@@ -7111,10 +9787,27 @@
       <c r="H54">
         <v>31.015000000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J54">
+        <f>(C54-G54)/G54</f>
+        <v>-1.2844465203176019E-2</v>
+      </c>
+      <c r="K54">
+        <f>(D54-H54)/H54</f>
+        <v>1.9184265677897754E-2</v>
+      </c>
+      <c r="N54">
+        <v>341.755</v>
+      </c>
+      <c r="O54">
+        <v>41.094999999999999</v>
+      </c>
+      <c r="P54">
+        <v>33.64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B55">
         <v>323.81</v>
@@ -7134,10 +9827,27 @@
       <c r="H55">
         <v>45.575000000000003</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J55">
+        <f>(C55-G55)/G55</f>
+        <v>0.69238900634249467</v>
+      </c>
+      <c r="K55">
+        <f>(D55-H55)/H55</f>
+        <v>0.17641250685682938</v>
+      </c>
+      <c r="N55">
+        <v>306.35500000000002</v>
+      </c>
+      <c r="O55">
+        <v>7.58</v>
+      </c>
+      <c r="P55">
+        <v>55.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B56">
         <v>630.91999999999996</v>
@@ -7157,10 +9867,27 @@
       <c r="H56">
         <v>31.67</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J56">
+        <f>(C56-G56)/G56</f>
+        <v>0.18339316372717343</v>
+      </c>
+      <c r="K56">
+        <f>(D56-H56)/H56</f>
+        <v>-3.7890748342280073E-3</v>
+      </c>
+      <c r="N56">
+        <v>337.37</v>
+      </c>
+      <c r="O56">
+        <v>38.26</v>
+      </c>
+      <c r="P56">
+        <v>38.89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>306.35500000000002</v>
@@ -7180,10 +9907,27 @@
       <c r="H57">
         <v>44.86</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J57">
+        <f>(C57-G57)/G57</f>
+        <v>0.68565400843881852</v>
+      </c>
+      <c r="K57">
+        <f>(D57-H57)/H57</f>
+        <v>0.41752117699509594</v>
+      </c>
+      <c r="N57">
+        <v>308.37</v>
+      </c>
+      <c r="O57">
+        <v>7.57</v>
+      </c>
+      <c r="P57">
+        <v>61.2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>470</v>
@@ -7203,8 +9947,25 @@
       <c r="H58">
         <v>64.245000000000005</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J58">
+        <f>(C58-G58)/G58</f>
+        <v>0.46891464699683871</v>
+      </c>
+      <c r="K58">
+        <f>(D58-H58)/H58</f>
+        <v>-4.5139699587517512E-3</v>
+      </c>
+      <c r="N58">
+        <v>368.13</v>
+      </c>
+      <c r="O58">
+        <v>6.9950000000000001</v>
+      </c>
+      <c r="P58">
+        <v>64.89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -7226,10 +9987,27 @@
       <c r="H59">
         <v>82.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J59">
+        <f>(C59-G59)/G59</f>
+        <v>7.5026795284030313E-3</v>
+      </c>
+      <c r="K59">
+        <f>(D59-H59)/H59</f>
+        <v>0.14306569343065681</v>
+      </c>
+      <c r="N59">
+        <v>324.84500000000003</v>
+      </c>
+      <c r="O59">
+        <v>37.6</v>
+      </c>
+      <c r="P59">
+        <v>86.814999999999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60">
         <v>594.42499999999995</v>
@@ -7249,10 +10027,27 @@
       <c r="H60">
         <v>40.604999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J60">
+        <f>(C60-G60)/G60</f>
+        <v>0.48411016949152547</v>
+      </c>
+      <c r="K60">
+        <f>(D60-H60)/H60</f>
+        <v>-2.4627508927471987E-2</v>
+      </c>
+      <c r="N60">
+        <v>392.18</v>
+      </c>
+      <c r="O60">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="P60">
+        <v>43.57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B61">
         <v>465.15499999999997</v>
@@ -7272,10 +10067,27 @@
       <c r="H61">
         <v>38.454999999999998</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J61">
+        <f>(C61-G61)/G61</f>
+        <v>0.24923670255503774</v>
+      </c>
+      <c r="K61">
+        <f>(D61-H61)/H61</f>
+        <v>-2.9905083864255593E-3</v>
+      </c>
+      <c r="N61">
+        <v>395.01</v>
+      </c>
+      <c r="O61">
+        <v>34.25</v>
+      </c>
+      <c r="P61">
+        <v>42.375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>262.23500000000001</v>
@@ -7295,10 +10107,27 @@
       <c r="H62">
         <v>31.274999999999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J62">
+        <f>(C62-G62)/G62</f>
+        <v>0.68315789473684208</v>
+      </c>
+      <c r="K62">
+        <f>(D62-H62)/H62</f>
+        <v>0.6660271782573941</v>
+      </c>
+      <c r="N62">
+        <v>254.89500000000001</v>
+      </c>
+      <c r="O62">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="P62">
+        <v>45.15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B63">
         <v>265.76</v>
@@ -7318,10 +10147,27 @@
       <c r="H63">
         <v>36.255000000000003</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J63">
+        <f>(C63-G63)/G63</f>
+        <v>0.49789029535864965</v>
+      </c>
+      <c r="K63">
+        <f>(D63-H63)/H63</f>
+        <v>0.50158598813956679</v>
+      </c>
+      <c r="N63">
+        <v>266.23</v>
+      </c>
+      <c r="O63">
+        <v>6.96</v>
+      </c>
+      <c r="P63">
+        <v>54.99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B64">
         <v>526.52499999999998</v>
@@ -7341,10 +10187,27 @@
       <c r="H64">
         <v>17.97</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J64">
+        <f>(C64-G64)/G64</f>
+        <v>0.29344595651493821</v>
+      </c>
+      <c r="K64">
+        <f>(D64-H64)/H64</f>
+        <v>-5.8430717863105419E-3</v>
+      </c>
+      <c r="N64">
+        <v>713.81500000000005</v>
+      </c>
+      <c r="O64">
+        <v>41.765000000000001</v>
+      </c>
+      <c r="P64">
+        <v>17.98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B65">
         <v>401.39499999999998</v>
@@ -7364,10 +10227,27 @@
       <c r="H65">
         <v>50.094999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J65">
+        <f>(C65-G65)/G65</f>
+        <v>0.50212314225053079</v>
+      </c>
+      <c r="K65">
+        <f>(D65-H65)/H65</f>
+        <v>0.1684798882123964</v>
+      </c>
+      <c r="N65">
+        <v>402.18</v>
+      </c>
+      <c r="O65">
+        <v>6.98</v>
+      </c>
+      <c r="P65">
+        <v>55.91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B66">
         <v>501.26</v>
@@ -7387,10 +10267,27 @@
       <c r="H66">
         <v>69.375</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J66">
+        <f>(C66-G66)/G66</f>
+        <v>0.13341601700921335</v>
+      </c>
+      <c r="K66">
+        <f>(D66-H66)/H66</f>
+        <v>-2.0180180180180262E-3</v>
+      </c>
+      <c r="N66">
+        <v>599.64499999999998</v>
+      </c>
+      <c r="O66">
+        <v>30.62</v>
+      </c>
+      <c r="P66">
+        <v>74.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B67">
         <v>345.01</v>
@@ -7410,10 +10307,27 @@
       <c r="H67">
         <v>37.28</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J67">
+        <f>(C67-G67)/G67</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="K67">
+        <f>(D67-H67)/H67</f>
+        <v>0.15987124463519314</v>
+      </c>
+      <c r="N67">
+        <v>536.995</v>
+      </c>
+      <c r="O67">
+        <v>7.03</v>
+      </c>
+      <c r="P67">
+        <v>35.79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B68">
         <v>436.29</v>
@@ -7433,10 +10347,27 @@
       <c r="H68">
         <v>17.97</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J68">
+        <f>(C68-G68)/G68</f>
+        <v>0.30947206953854012</v>
+      </c>
+      <c r="K68">
+        <f>(D68-H68)/H68</f>
+        <v>8.8202559821925486E-2</v>
+      </c>
+      <c r="N68">
+        <v>336.52</v>
+      </c>
+      <c r="O68">
+        <v>51.994999999999997</v>
+      </c>
+      <c r="P68">
+        <v>19.170000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B69">
         <v>553.99</v>
@@ -7456,8 +10387,25 @@
       <c r="H69">
         <v>47.774999999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J69">
+        <f>(C69-G69)/G69</f>
+        <v>0.13288859239492987</v>
+      </c>
+      <c r="K69">
+        <f>(D69-H69)/H69</f>
+        <v>-1.0570381998953333E-2</v>
+      </c>
+      <c r="N69">
+        <v>552.48</v>
+      </c>
+      <c r="O69">
+        <v>42.43</v>
+      </c>
+      <c r="P69">
+        <v>43.984999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -7479,8 +10427,25 @@
       <c r="H70">
         <v>50.38</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J70">
+        <f>(C70-G70)/G70</f>
+        <v>-2.2555375472717472E-2</v>
+      </c>
+      <c r="K70">
+        <f>(D70-H70)/H70</f>
+        <v>-3.9102818578801227E-2</v>
+      </c>
+      <c r="N70">
+        <v>608.96</v>
+      </c>
+      <c r="O70">
+        <v>36.51</v>
+      </c>
+      <c r="P70">
+        <v>58.104999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -7502,8 +10467,25 @@
       <c r="H71">
         <v>39.255000000000003</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="J71">
+        <f>(C71-G71)/G71</f>
+        <v>0.50105708245243108</v>
+      </c>
+      <c r="K71">
+        <f>(D71-H71)/H71</f>
+        <v>0.22990701821424017</v>
+      </c>
+      <c r="N71">
+        <v>422.36500000000001</v>
+      </c>
+      <c r="O71">
+        <v>6.96</v>
+      </c>
+      <c r="P71">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -7525,11 +10507,41 @@
       <c r="H72">
         <v>47.615000000000002</v>
       </c>
+      <c r="J72">
+        <f>(C72-G72)/G72</f>
+        <v>0.19092827004219395</v>
+      </c>
+      <c r="K72">
+        <f>(D72-H72)/H72</f>
+        <v>-1.3966187125905683E-2</v>
+      </c>
+      <c r="N72">
+        <v>252.995</v>
+      </c>
+      <c r="O72">
+        <v>5.28</v>
+      </c>
+      <c r="P72">
+        <v>47.37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="J75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="J76" s="3">
+        <f>AVERAGE(J3:K72)</f>
+        <v>0.25438936016934272</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="F1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:P1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Traffic_Simulation/Assets/Results/Congestion.xlsx
+++ b/Traffic_Simulation/Assets/Results/Congestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\workspace\TSB\Traffic_Simulation\Assets\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5184139-E6C0-47DF-B94D-E0AB24F8958F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FE3FB2-845B-4431-8B4C-508B941BADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7845" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
+    <workbookView xWindow="57480" yWindow="7845" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
   </bookViews>
   <sheets>
     <sheet name="prev-10-shortest" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="81">
   <si>
     <t>Truck-0</t>
   </si>
@@ -7418,7 +7418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A16E61-9B29-465D-8B4B-E21AF31D5708}">
   <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
@@ -14512,10 +14512,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26FB8DE-947C-489D-AA5C-0B528FDCA3AE}">
-  <dimension ref="A1:P152"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -16810,6 +16810,23 @@
       <c r="D83">
         <v>230.65199999999999</v>
       </c>
+      <c r="F83">
+        <v>368.108</v>
+      </c>
+      <c r="G83">
+        <v>7.5279999999999996</v>
+      </c>
+      <c r="H83">
+        <v>59.567999999999998</v>
+      </c>
+      <c r="J83">
+        <f>(C83-G83)/G83</f>
+        <v>1.0626992561105217E-3</v>
+      </c>
+      <c r="K83">
+        <f>(D83-H83)/H83</f>
+        <v>2.8720789685737311</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
@@ -16824,6 +16841,23 @@
       <c r="D84">
         <v>105</v>
       </c>
+      <c r="F84">
+        <v>352.04</v>
+      </c>
+      <c r="G84">
+        <v>6.992</v>
+      </c>
+      <c r="H84">
+        <v>44.036000000000001</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ref="J84:J147" si="6">(C84-G84)/G84</f>
+        <v>7.8375286041189943E-2</v>
+      </c>
+      <c r="K84">
+        <f t="shared" ref="K84:K147" si="7">(D84-H84)/H84</f>
+        <v>1.3844127532019257</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
@@ -16838,6 +16872,23 @@
       <c r="D85">
         <v>209.96799999999999</v>
       </c>
+      <c r="F85">
+        <v>354.95600000000002</v>
+      </c>
+      <c r="G85">
+        <v>7.008</v>
+      </c>
+      <c r="H85">
+        <v>46.936</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>7.5342465753424598E-2</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="7"/>
+        <v>3.4734958241009029</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
@@ -16852,6 +16903,23 @@
       <c r="D86">
         <v>57.972000000000001</v>
       </c>
+      <c r="F86">
+        <v>344.404</v>
+      </c>
+      <c r="G86">
+        <v>7.016</v>
+      </c>
+      <c r="H86">
+        <v>36.380000000000003</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>7.4686431014823265E-2</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="7"/>
+        <v>0.59351291918636606</v>
+      </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
@@ -16866,6 +16934,23 @@
       <c r="D87">
         <v>178.768</v>
       </c>
+      <c r="F87">
+        <v>363.32799999999997</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+      <c r="H87">
+        <v>55.308</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>0.50057142857142856</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="7"/>
+        <v>2.2322268026325309</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
@@ -16880,6 +16965,23 @@
       <c r="D88">
         <v>85.275999999999996</v>
       </c>
+      <c r="F88">
+        <v>370.15199999999999</v>
+      </c>
+      <c r="G88">
+        <v>36.688000000000002</v>
+      </c>
+      <c r="H88">
+        <v>32.456000000000003</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>2.5512429132141298E-2</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="7"/>
+        <v>1.6274340645797383</v>
+      </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
@@ -16894,6 +16996,23 @@
       <c r="D89">
         <v>139.63999999999999</v>
       </c>
+      <c r="F89">
+        <v>372.524</v>
+      </c>
+      <c r="G89">
+        <v>33.78</v>
+      </c>
+      <c r="H89">
+        <v>37.735999999999997</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>1.7406749555950295E-2</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="7"/>
+        <v>2.700445198219207</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
@@ -16908,6 +17027,23 @@
       <c r="D90">
         <v>202.27199999999999</v>
       </c>
+      <c r="F90">
+        <v>393.46</v>
+      </c>
+      <c r="G90">
+        <v>36.576000000000001</v>
+      </c>
+      <c r="H90">
+        <v>55.875999999999998</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>0.15376202974628178</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="7"/>
+        <v>2.6200157491588518</v>
+      </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
@@ -16922,6 +17058,23 @@
       <c r="D91">
         <v>74.355999999999995</v>
       </c>
+      <c r="F91">
+        <v>353.20400000000001</v>
+      </c>
+      <c r="G91">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H91">
+        <v>45.183999999999997</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>0.49971444888635069</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="7"/>
+        <v>0.64562677053824358</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
@@ -16936,6 +17089,23 @@
       <c r="D92">
         <v>81.212000000000003</v>
       </c>
+      <c r="F92">
+        <v>354.74400000000003</v>
+      </c>
+      <c r="G92">
+        <v>7.008</v>
+      </c>
+      <c r="H92">
+        <v>46.723999999999997</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>0.49200913242009126</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="7"/>
+        <v>0.7381217361527268</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
@@ -16950,6 +17120,23 @@
       <c r="D93">
         <v>74.456000000000003</v>
       </c>
+      <c r="F93">
+        <v>369.012</v>
+      </c>
+      <c r="G93">
+        <v>29.292000000000002</v>
+      </c>
+      <c r="H93">
+        <v>38.712000000000003</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>0.22272292776184627</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="7"/>
+        <v>0.92333126679065913</v>
+      </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
@@ -16964,6 +17151,23 @@
       <c r="D94">
         <v>210.596</v>
       </c>
+      <c r="F94">
+        <v>378.49200000000002</v>
+      </c>
+      <c r="G94">
+        <v>41.683999999999997</v>
+      </c>
+      <c r="H94">
+        <v>35.795999999999999</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>1.3434411284905535E-2</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="7"/>
+        <v>4.8832271762208075</v>
+      </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
@@ -16978,6 +17182,23 @@
       <c r="D95">
         <v>122.976</v>
       </c>
+      <c r="F95">
+        <v>374.54399999999998</v>
+      </c>
+      <c r="G95">
+        <v>16.884</v>
+      </c>
+      <c r="H95">
+        <v>56.652000000000001</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>3.3167495854062944E-2</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="7"/>
+        <v>1.1707265409870788</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
@@ -16992,8 +17213,25 @@
       <c r="D96">
         <v>196.11600000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F96">
+        <v>363.34</v>
+      </c>
+      <c r="G96">
+        <v>7.02</v>
+      </c>
+      <c r="H96">
+        <v>55.311999999999998</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>0.48945868945868948</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="7"/>
+        <v>2.5456320509111952</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>21</v>
       </c>
@@ -17006,8 +17244,25 @@
       <c r="D97">
         <v>69.796000000000006</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F97">
+        <v>344.44799999999998</v>
+      </c>
+      <c r="G97">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H97">
+        <v>36.44</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>0.49971444888635069</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="7"/>
+        <v>0.91536772777167974</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -17020,8 +17275,25 @@
       <c r="D98">
         <v>218.792</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F98">
+        <v>401.488</v>
+      </c>
+      <c r="G98">
+        <v>36.624000000000002</v>
+      </c>
+      <c r="H98">
+        <v>63.856000000000002</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>0.17726081258191342</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="7"/>
+        <v>2.4263342520671509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>23</v>
       </c>
@@ -17034,8 +17306,25 @@
       <c r="D99">
         <v>89.927999999999997</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F99">
+        <v>391.76799999999997</v>
+      </c>
+      <c r="G99">
+        <v>29.263999999999999</v>
+      </c>
+      <c r="H99">
+        <v>61.496000000000002</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="6"/>
+        <v>0.28075451066156359</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="7"/>
+        <v>0.46233901391960441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -17048,8 +17337,25 @@
       <c r="D100">
         <v>95.784000000000006</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F100">
+        <v>341.68400000000003</v>
+      </c>
+      <c r="G100">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H100">
+        <v>33.671999999999997</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="6"/>
+        <v>0.47173043974871509</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="7"/>
+        <v>1.8446186742694231</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>25</v>
       </c>
@@ -17062,8 +17368,25 @@
       <c r="D101">
         <v>107.13200000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F101">
+        <v>344.93200000000002</v>
+      </c>
+      <c r="G101">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H101">
+        <v>36.92</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="6"/>
+        <v>0.49286122215876643</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="7"/>
+        <v>1.9017334777898158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>26</v>
       </c>
@@ -17076,8 +17399,25 @@
       <c r="D102">
         <v>43.716000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F102">
+        <v>346.16</v>
+      </c>
+      <c r="G102">
+        <v>7.024</v>
+      </c>
+      <c r="H102">
+        <v>38.131999999999998</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="6"/>
+        <v>7.2892938496583085E-2</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="7"/>
+        <v>0.14643868666736609</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>27</v>
       </c>
@@ -17090,8 +17430,25 @@
       <c r="D103">
         <v>47.923999999999999</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F103">
+        <v>342.80799999999999</v>
+      </c>
+      <c r="G103">
+        <v>7.008</v>
+      </c>
+      <c r="H103">
+        <v>34.795999999999999</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="6"/>
+        <v>0.49828767123287671</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="7"/>
+        <v>0.37728474537303142</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>28</v>
       </c>
@@ -17104,8 +17461,25 @@
       <c r="D104">
         <v>230.768</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F104">
+        <v>363.84800000000001</v>
+      </c>
+      <c r="G104">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H104">
+        <v>55.835999999999999</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="6"/>
+        <v>0.49971444888635069</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="7"/>
+        <v>3.1329608138118781</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>29</v>
       </c>
@@ -17118,8 +17492,25 @@
       <c r="D105">
         <v>149.18799999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F105">
+        <v>372.46800000000002</v>
+      </c>
+      <c r="G105">
+        <v>33.863999999999997</v>
+      </c>
+      <c r="H105">
+        <v>37.595999999999997</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="6"/>
+        <v>0.17788802267895115</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="7"/>
+        <v>2.9681881051175654</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>3</v>
       </c>
@@ -17132,8 +17523,25 @@
       <c r="D106">
         <v>219.57599999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F106">
+        <v>357.524</v>
+      </c>
+      <c r="G106">
+        <v>7.008</v>
+      </c>
+      <c r="H106">
+        <v>49.503999999999998</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="6"/>
+        <v>7.5342465753424598E-2</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="7"/>
+        <v>3.4355203619909505</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>30</v>
       </c>
@@ -17146,8 +17554,25 @@
       <c r="D107">
         <v>186.12</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F107">
+        <v>366.04</v>
+      </c>
+      <c r="G107">
+        <v>7.008</v>
+      </c>
+      <c r="H107">
+        <v>57.287999999999997</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="6"/>
+        <v>0.50285388127853881</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="7"/>
+        <v>2.2488479262672811</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>31</v>
       </c>
@@ -17160,8 +17585,25 @@
       <c r="D108">
         <v>153.69200000000001</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F108">
+        <v>395.964</v>
+      </c>
+      <c r="G108">
+        <v>42.98</v>
+      </c>
+      <c r="H108">
+        <v>51.975999999999999</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="6"/>
+        <v>0.12489530013959987</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="7"/>
+        <v>1.9569801446821611</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>32</v>
       </c>
@@ -17174,8 +17616,25 @@
       <c r="D109">
         <v>226.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F109">
+        <v>360.4</v>
+      </c>
+      <c r="G109">
+        <v>7.024</v>
+      </c>
+      <c r="H109">
+        <v>52.368000000000002</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="6"/>
+        <v>7.2892938496583085E-2</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="7"/>
+        <v>3.319431714023831</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -17188,8 +17647,25 @@
       <c r="D110">
         <v>170.95599999999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F110">
+        <v>394.73200000000003</v>
+      </c>
+      <c r="G110">
+        <v>40.444000000000003</v>
+      </c>
+      <c r="H110">
+        <v>53.28</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="6"/>
+        <v>0.66778755810503398</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="7"/>
+        <v>2.2086336336336334</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>34</v>
       </c>
@@ -17202,8 +17678,25 @@
       <c r="D111">
         <v>112.88</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F111">
+        <v>373.964</v>
+      </c>
+      <c r="G111">
+        <v>30.46</v>
+      </c>
+      <c r="H111">
+        <v>42.496000000000002</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="6"/>
+        <v>0.24057780695994732</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="7"/>
+        <v>1.6562499999999996</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -17216,8 +17709,25 @@
       <c r="D112">
         <v>202.636</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F112">
+        <v>355.52800000000002</v>
+      </c>
+      <c r="G112">
+        <v>7.008</v>
+      </c>
+      <c r="H112">
+        <v>47.512</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="6"/>
+        <v>0.53767123287671226</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="7"/>
+        <v>3.2649435931975077</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>36</v>
       </c>
@@ -17230,8 +17740,25 @@
       <c r="D113">
         <v>116.64</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F113">
+        <v>344.66399999999999</v>
+      </c>
+      <c r="G113">
+        <v>7.008</v>
+      </c>
+      <c r="H113">
+        <v>36.648000000000003</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="6"/>
+        <v>0.52910958904109584</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="7"/>
+        <v>2.1827111984282901</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>37</v>
       </c>
@@ -17244,8 +17771,25 @@
       <c r="D114">
         <v>110.736</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F114">
+        <v>361.18799999999999</v>
+      </c>
+      <c r="G114">
+        <v>16.86</v>
+      </c>
+      <c r="H114">
+        <v>43.32</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="6"/>
+        <v>3.4163701067615689E-2</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="7"/>
+        <v>1.5562326869806093</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>38</v>
       </c>
@@ -17258,8 +17802,25 @@
       <c r="D115">
         <v>235.376</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F115">
+        <v>401.56400000000002</v>
+      </c>
+      <c r="G115">
+        <v>30.468</v>
+      </c>
+      <c r="H115">
+        <v>70.087999999999994</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="6"/>
+        <v>0.34094787974268093</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="7"/>
+        <v>2.3582924323707344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>39</v>
       </c>
@@ -17272,8 +17833,25 @@
       <c r="D116">
         <v>64.676000000000002</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F116">
+        <v>344.596</v>
+      </c>
+      <c r="G116">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H116">
+        <v>36.58</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="6"/>
+        <v>0.49914334665905208</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="7"/>
+        <v>0.76806998359759449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>4</v>
       </c>
@@ -17286,8 +17864,25 @@
       <c r="D117">
         <v>52.088000000000001</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F117">
+        <v>344.49200000000002</v>
+      </c>
+      <c r="G117">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H117">
+        <v>36.475999999999999</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="6"/>
+        <v>7.6527698458024054E-2</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="7"/>
+        <v>0.42800745695799985</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>46</v>
       </c>
@@ -17300,8 +17895,25 @@
       <c r="D118">
         <v>222.45599999999999</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F118">
+        <v>357.43200000000002</v>
+      </c>
+      <c r="G118">
+        <v>7</v>
+      </c>
+      <c r="H118">
+        <v>49.42</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="6"/>
+        <v>0.50057142857142856</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="7"/>
+        <v>3.5013354917037636</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>47</v>
       </c>
@@ -17314,8 +17926,25 @@
       <c r="D119">
         <v>29.324000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F119">
+        <v>336.096</v>
+      </c>
+      <c r="G119">
+        <v>6.9960000000000004</v>
+      </c>
+      <c r="H119">
+        <v>28.088000000000001</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="6"/>
+        <v>0.50085763293310459</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="7"/>
+        <v>4.400455710623756E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>48</v>
       </c>
@@ -17328,8 +17957,25 @@
       <c r="D120">
         <v>275.964</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F120">
+        <v>367.63200000000001</v>
+      </c>
+      <c r="G120">
+        <v>7.02</v>
+      </c>
+      <c r="H120">
+        <v>59.595999999999997</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="6"/>
+        <v>0.50028490028490036</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="7"/>
+        <v>3.6305792335056046</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>49</v>
       </c>
@@ -17342,8 +17988,25 @@
       <c r="D121">
         <v>90.224000000000004</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F121">
+        <v>383.72399999999999</v>
+      </c>
+      <c r="G121">
+        <v>37.479999999999997</v>
+      </c>
+      <c r="H121">
+        <v>45.24</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="6"/>
+        <v>0.43649946638207066</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="7"/>
+        <v>0.99434129089301504</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>50</v>
       </c>
@@ -17356,8 +18019,25 @@
       <c r="D122">
         <v>144.18</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F122">
+        <v>377.64800000000002</v>
+      </c>
+      <c r="G122">
+        <v>34.308</v>
+      </c>
+      <c r="H122">
+        <v>42.328000000000003</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="6"/>
+        <v>0.42590649411216047</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="7"/>
+        <v>2.4062559062559061</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>51</v>
       </c>
@@ -17370,8 +18050,25 @@
       <c r="D123">
         <v>50.176000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F123">
+        <v>341.11200000000002</v>
+      </c>
+      <c r="G123">
+        <v>7.04</v>
+      </c>
+      <c r="H123">
+        <v>33.064</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="6"/>
+        <v>7.0454545454545395E-2</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="7"/>
+        <v>0.51754173723687402</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>52</v>
       </c>
@@ -17384,8 +18081,25 @@
       <c r="D124">
         <v>169.852</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F124">
+        <v>367.50400000000002</v>
+      </c>
+      <c r="G124">
+        <v>29.064</v>
+      </c>
+      <c r="H124">
+        <v>37.432000000000002</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="6"/>
+        <v>0.40668868703550787</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="7"/>
+        <v>3.537614874973285</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>53</v>
       </c>
@@ -17398,8 +18112,25 @@
       <c r="D125">
         <v>69.16</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F125">
+        <v>361.084</v>
+      </c>
+      <c r="G125">
+        <v>19.356000000000002</v>
+      </c>
+      <c r="H125">
+        <v>40.72</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="6"/>
+        <v>0.15912378590617887</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="7"/>
+        <v>0.69842829076620827</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>54</v>
       </c>
@@ -17412,8 +18143,25 @@
       <c r="D126">
         <v>35.847999999999999</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F126">
+        <v>370.55599999999998</v>
+      </c>
+      <c r="G126">
+        <v>34.264000000000003</v>
+      </c>
+      <c r="H126">
+        <v>35.256</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="6"/>
+        <v>0.59992995563857099</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="7"/>
+        <v>1.6791468118901712E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>55</v>
       </c>
@@ -17426,8 +18174,25 @@
       <c r="D127">
         <v>89.811999999999998</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F127">
+        <v>353.04</v>
+      </c>
+      <c r="G127">
+        <v>7.0119999999999996</v>
+      </c>
+      <c r="H127">
+        <v>45.02</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="6"/>
+        <v>0.73474044495151181</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="7"/>
+        <v>0.99493558418480654</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -17440,8 +18205,25 @@
       <c r="D128">
         <v>147.38800000000001</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F128">
+        <v>363.428</v>
+      </c>
+      <c r="G128">
+        <v>7.0279999999999996</v>
+      </c>
+      <c r="H128">
+        <v>55.392000000000003</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="6"/>
+        <v>7.2851451337507186E-2</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="7"/>
+        <v>1.6608174465626806</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>56</v>
       </c>
@@ -17454,8 +18236,25 @@
       <c r="D129">
         <v>97.736000000000004</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F129">
+        <v>344.70400000000001</v>
+      </c>
+      <c r="G129">
+        <v>7.008</v>
+      </c>
+      <c r="H129">
+        <v>36.692</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="6"/>
+        <v>0.42009132420091322</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="7"/>
+        <v>1.6636869072277336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>57</v>
       </c>
@@ -17468,8 +18267,25 @@
       <c r="D130">
         <v>66.052000000000007</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F130">
+        <v>349.76400000000001</v>
+      </c>
+      <c r="G130">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H130">
+        <v>41.735999999999997</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="6"/>
+        <v>0.5037121644774416</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="7"/>
+        <v>0.58261452942304037</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>58</v>
       </c>
@@ -17482,8 +18298,25 @@
       <c r="D131">
         <v>276.05599999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F131">
+        <v>376.31599999999997</v>
+      </c>
+      <c r="G131">
+        <v>7.032</v>
+      </c>
+      <c r="H131">
+        <v>68.268000000000001</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="6"/>
+        <v>0.4408418657565415</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="7"/>
+        <v>3.0437100837874258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>59</v>
       </c>
@@ -17496,8 +18329,25 @@
       <c r="D132">
         <v>79.884</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F132">
+        <v>356.70800000000003</v>
+      </c>
+      <c r="G132">
+        <v>23.164000000000001</v>
+      </c>
+      <c r="H132">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="6"/>
+        <v>0.38162666206181989</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="7"/>
+        <v>1.4564575645756455</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>60</v>
       </c>
@@ -17510,8 +18360,25 @@
       <c r="D133">
         <v>92.555999999999997</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F133">
+        <v>341.64800000000002</v>
+      </c>
+      <c r="G133">
+        <v>7</v>
+      </c>
+      <c r="H133">
+        <v>33.624000000000002</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="6"/>
+        <v>0.50457142857142856</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="7"/>
+        <v>1.7526766595289076</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>61</v>
       </c>
@@ -17524,8 +18391,25 @@
       <c r="D134">
         <v>91.38</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F134">
+        <v>341.62799999999999</v>
+      </c>
+      <c r="G134">
+        <v>7.008</v>
+      </c>
+      <c r="H134">
+        <v>33.612000000000002</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="6"/>
+        <v>0.53767123287671226</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="7"/>
+        <v>1.718671902891824</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>62</v>
       </c>
@@ -17538,8 +18422,25 @@
       <c r="D135">
         <v>38.244</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F135">
+        <v>378.94400000000002</v>
+      </c>
+      <c r="G135">
+        <v>39.508000000000003</v>
+      </c>
+      <c r="H135">
+        <v>38.42</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="6"/>
+        <v>0.72592892578718227</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="7"/>
+        <v>-4.5809474232171247E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>63</v>
       </c>
@@ -17552,8 +18453,25 @@
       <c r="D136">
         <v>131.804</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F136">
+        <v>369.91199999999998</v>
+      </c>
+      <c r="G136">
+        <v>35.167999999999999</v>
+      </c>
+      <c r="H136">
+        <v>33.735999999999997</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="6"/>
+        <v>0.74272065514103724</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="7"/>
+        <v>2.9069243538060237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>64</v>
       </c>
@@ -17566,8 +18484,25 @@
       <c r="D137">
         <v>90.792000000000002</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F137">
+        <v>341.87599999999998</v>
+      </c>
+      <c r="G137">
+        <v>6.9960000000000004</v>
+      </c>
+      <c r="H137">
+        <v>33.875999999999998</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="6"/>
+        <v>0.51972555746140636</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="7"/>
+        <v>1.6801275239107334</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>65</v>
       </c>
@@ -17580,8 +18515,25 @@
       <c r="D138">
         <v>255.76</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F138">
+        <v>395.66800000000001</v>
+      </c>
+      <c r="G138">
+        <v>30.527999999999999</v>
+      </c>
+      <c r="H138">
+        <v>64.132000000000005</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="6"/>
+        <v>0.30463836477987438</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="7"/>
+        <v>2.988024699058192</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>6</v>
       </c>
@@ -17594,8 +18546,25 @@
       <c r="D139">
         <v>154.52799999999999</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F139">
+        <v>352.70400000000001</v>
+      </c>
+      <c r="G139">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H139">
+        <v>44.692</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="6"/>
+        <v>0.49971444888635069</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="7"/>
+        <v>2.4576210507473371</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>66</v>
       </c>
@@ -17608,8 +18577,25 @@
       <c r="D140">
         <v>91.128</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F140">
+        <v>359.00400000000002</v>
+      </c>
+      <c r="G140">
+        <v>25.724</v>
+      </c>
+      <c r="H140">
+        <v>32.256</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="6"/>
+        <v>0.50132172290468036</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="7"/>
+        <v>1.8251488095238095</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>67</v>
       </c>
@@ -17622,8 +18608,25 @@
       <c r="D141">
         <v>191.548</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F141">
+        <v>378.14800000000002</v>
+      </c>
+      <c r="G141">
+        <v>41.728000000000002</v>
+      </c>
+      <c r="H141">
+        <v>35.411999999999999</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="6"/>
+        <v>0.46203987730061352</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="7"/>
+        <v>4.4091268496554843</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>68</v>
       </c>
@@ -17636,8 +18639,25 @@
       <c r="D142">
         <v>128.61600000000001</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F142">
+        <v>362.90800000000002</v>
+      </c>
+      <c r="G142">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H142">
+        <v>54.892000000000003</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="6"/>
+        <v>0.53854940034266141</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="7"/>
+        <v>1.3430736719376233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>69</v>
       </c>
@@ -17650,8 +18670,25 @@
       <c r="D143">
         <v>95.88</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F143">
+        <v>341.72399999999999</v>
+      </c>
+      <c r="G143">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H143">
+        <v>33.712000000000003</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="6"/>
+        <v>0.41918903483723591</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="7"/>
+        <v>1.8440911248220213</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>70</v>
       </c>
@@ -17664,8 +18701,25 @@
       <c r="D144">
         <v>134.69200000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F144">
+        <v>374.512</v>
+      </c>
+      <c r="G144">
+        <v>39.851999999999997</v>
+      </c>
+      <c r="H144">
+        <v>33.655999999999999</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="6"/>
+        <v>0.67820937468633946</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="7"/>
+        <v>3.0020204421202759</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>71</v>
       </c>
@@ -17678,8 +18732,25 @@
       <c r="D145">
         <v>228.364</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F145">
+        <v>372.20800000000003</v>
+      </c>
+      <c r="G145">
+        <v>7.024</v>
+      </c>
+      <c r="H145">
+        <v>64.176000000000002</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="6"/>
+        <v>0.51366742596810933</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="7"/>
+        <v>2.5584018947893292</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -17692,8 +18763,25 @@
       <c r="D146">
         <v>38.828000000000003</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F146">
+        <v>346.86</v>
+      </c>
+      <c r="G146">
+        <v>7</v>
+      </c>
+      <c r="H146">
+        <v>38.856000000000002</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="6"/>
+        <v>0.50057142857142856</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="7"/>
+        <v>-7.2060942968907478E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>73</v>
       </c>
@@ -17706,8 +18794,25 @@
       <c r="D147">
         <v>219.76</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F147">
+        <v>375.23200000000003</v>
+      </c>
+      <c r="G147">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H147">
+        <v>67.215999999999994</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="6"/>
+        <v>0.52427184466019428</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="7"/>
+        <v>2.269459652463699</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>74</v>
       </c>
@@ -17720,8 +18825,25 @@
       <c r="D148">
         <v>209.392</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F148">
+        <v>383.88799999999998</v>
+      </c>
+      <c r="G148">
+        <v>34.384</v>
+      </c>
+      <c r="H148">
+        <v>48.496000000000002</v>
+      </c>
+      <c r="J148">
+        <f t="shared" ref="J148:J152" si="8">(C148-G148)/G148</f>
+        <v>0.75081433224755711</v>
+      </c>
+      <c r="K148">
+        <f t="shared" ref="K148:K152" si="9">(D148-H148)/H148</f>
+        <v>3.3177169251072249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>75</v>
       </c>
@@ -17734,8 +18856,25 @@
       <c r="D149">
         <v>152.18799999999999</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F149">
+        <v>385.84</v>
+      </c>
+      <c r="G149">
+        <v>35.415999999999997</v>
+      </c>
+      <c r="H149">
+        <v>49.408000000000001</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="8"/>
+        <v>0.42037497176417454</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="9"/>
+        <v>2.0802299222797926</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>7</v>
       </c>
@@ -17748,8 +18887,25 @@
       <c r="D150">
         <v>113.964</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F150">
+        <v>350.56400000000002</v>
+      </c>
+      <c r="G150">
+        <v>6.9960000000000004</v>
+      </c>
+      <c r="H150">
+        <v>42.555999999999997</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="8"/>
+        <v>7.7186963979416684E-2</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="9"/>
+        <v>1.6779772535012691</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>8</v>
       </c>
@@ -17762,8 +18918,25 @@
       <c r="D151">
         <v>29.6</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="F151">
+        <v>336.28</v>
+      </c>
+      <c r="G151">
+        <v>7</v>
+      </c>
+      <c r="H151">
+        <v>28.268000000000001</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="8"/>
+        <v>7.7142857142857152E-2</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="9"/>
+        <v>4.7120418848167561E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>9</v>
       </c>
@@ -17775,6 +18948,34 @@
       </c>
       <c r="D152">
         <v>64.459999999999994</v>
+      </c>
+      <c r="F152">
+        <v>352.10399999999998</v>
+      </c>
+      <c r="G152">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H152">
+        <v>44.084000000000003</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="8"/>
+        <v>7.5956596230725315E-2</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="9"/>
+        <v>0.46220851102440769</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J154" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="J155">
+        <f>AVERAGE(J83:K152)</f>
+        <v>1.1152328665539164</v>
       </c>
     </row>
   </sheetData>

--- a/Traffic_Simulation/Assets/Results/Congestion.xlsx
+++ b/Traffic_Simulation/Assets/Results/Congestion.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\workspace\TSB\Traffic_Simulation\Assets\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FE3FB2-845B-4431-8B4C-508B941BADF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBD7EF2-9414-4D0C-89A4-5467A5557848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7845" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
+    <workbookView xWindow="15160" yWindow="4980" windowWidth="17910" windowHeight="15530" activeTab="1" xr2:uid="{F81A2273-AA8A-41A4-A7B0-C274DB7A7C78}"/>
   </bookViews>
   <sheets>
     <sheet name="prev-10-shortest" sheetId="4" r:id="rId1"/>
-    <sheet name="prev-20-shortest" sheetId="3" r:id="rId2"/>
-    <sheet name="prev-30-shortest" sheetId="2" r:id="rId3"/>
-    <sheet name="prev-40-shortest" sheetId="1" r:id="rId4"/>
-    <sheet name="prev-50-shortest" sheetId="5" r:id="rId5"/>
-    <sheet name="prev-60-shortest" sheetId="6" r:id="rId6"/>
-    <sheet name="prev-70-shortest" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId2"/>
+    <sheet name="prev-20-shortest" sheetId="3" r:id="rId3"/>
+    <sheet name="prev-30-shortest" sheetId="2" r:id="rId4"/>
+    <sheet name="prev-40-shortest" sheetId="1" r:id="rId5"/>
+    <sheet name="prev-50-shortest" sheetId="5" r:id="rId6"/>
+    <sheet name="prev-60-shortest" sheetId="6" r:id="rId7"/>
+    <sheet name="prev-70-shortest" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="81">
   <si>
     <t>Truck-0</t>
   </si>
@@ -676,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C2C484-9B3B-4452-B679-20744E6D870A}">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1412,10 +1413,120 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:10" x14ac:dyDescent="0.45">
       <c r="J33">
         <f>AVERAGE(J21:K30)</f>
         <v>6.7421651728762549E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F35">
+        <v>364.78</v>
+      </c>
+      <c r="G35">
+        <v>7.508</v>
+      </c>
+      <c r="H35">
+        <v>52.283999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F36">
+        <v>398.392</v>
+      </c>
+      <c r="G36">
+        <v>38.875999999999998</v>
+      </c>
+      <c r="H36">
+        <v>54.52</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F37">
+        <v>391.43200000000002</v>
+      </c>
+      <c r="G37">
+        <v>39.46</v>
+      </c>
+      <c r="H37">
+        <v>46.984000000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F38">
+        <v>342.392</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38">
+        <v>30.404</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F39">
+        <v>346.69200000000001</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39">
+        <v>34.707999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F40">
+        <v>373.81599999999997</v>
+      </c>
+      <c r="G40">
+        <v>7.02</v>
+      </c>
+      <c r="H40">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F41">
+        <v>362.47199999999998</v>
+      </c>
+      <c r="G41">
+        <v>16.88</v>
+      </c>
+      <c r="H41">
+        <v>40.607999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F42">
+        <v>431.01600000000002</v>
+      </c>
+      <c r="G42">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="H42">
+        <v>55.564</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F43">
+        <v>364.24799999999999</v>
+      </c>
+      <c r="G43">
+        <v>7</v>
+      </c>
+      <c r="H43">
+        <v>52.247999999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.45">
+      <c r="F44">
+        <v>367.17200000000003</v>
+      </c>
+      <c r="G44">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H44">
+        <v>55.183999999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1431,6 +1542,917 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89917086-BCBB-4FC5-8B87-38BEDF64B90A}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="J2" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>384.30799999999999</v>
+      </c>
+      <c r="C4">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="D4">
+        <v>71.664000000000001</v>
+      </c>
+      <c r="F4">
+        <v>364.78</v>
+      </c>
+      <c r="G4">
+        <v>7.508</v>
+      </c>
+      <c r="H4">
+        <v>52.283999999999999</v>
+      </c>
+      <c r="J4">
+        <f>(C4-G4)/G4</f>
+        <v>1.9712306872669113E-2</v>
+      </c>
+      <c r="K4">
+        <f>(D4-H4)/H4</f>
+        <v>0.37066789075051648</v>
+      </c>
+      <c r="M4">
+        <f>(B4-F4)/F4</f>
+        <v>5.353363671253912E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>407.584</v>
+      </c>
+      <c r="C5">
+        <v>39.792000000000002</v>
+      </c>
+      <c r="D5">
+        <v>62.8</v>
+      </c>
+      <c r="F5">
+        <v>398.392</v>
+      </c>
+      <c r="G5">
+        <v>38.875999999999998</v>
+      </c>
+      <c r="H5">
+        <v>54.52</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J13" si="0">(C5-G5)/G5</f>
+        <v>2.356209486572703E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K13" si="1">(D5-H5)/H5</f>
+        <v>0.15187087307410113</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M13" si="2">(B5-F5)/F5</f>
+        <v>2.3072752464908954E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>396.04399999999998</v>
+      </c>
+      <c r="C6">
+        <v>40.488</v>
+      </c>
+      <c r="D6">
+        <v>50.564</v>
+      </c>
+      <c r="F6">
+        <v>391.43200000000002</v>
+      </c>
+      <c r="G6">
+        <v>39.46</v>
+      </c>
+      <c r="H6">
+        <v>46.984000000000002</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>2.605169792194624E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>7.6196151881491536E-2</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>1.1782378548508977E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>343.18799999999999</v>
+      </c>
+      <c r="C7">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="D7">
+        <v>30.544</v>
+      </c>
+      <c r="F7">
+        <v>342.392</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>30.404</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>9.3714285714285667E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>4.6046572819366059E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>2.3248206733801967E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>347.32</v>
+      </c>
+      <c r="C8">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="D8">
+        <v>34.688000000000002</v>
+      </c>
+      <c r="F8">
+        <v>346.69200000000001</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>34.707999999999998</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>9.3714285714285667E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>-5.7623602627624815E-4</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>1.8114060895549533E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>374.56400000000002</v>
+      </c>
+      <c r="C9">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="D9">
+        <v>61.923999999999999</v>
+      </c>
+      <c r="F9">
+        <v>373.81599999999997</v>
+      </c>
+      <c r="G9">
+        <v>7.02</v>
+      </c>
+      <c r="H9">
+        <v>61.8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>9.0598290598290623E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>2.0064724919094229E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>2.0009844415435599E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>363.30399999999997</v>
+      </c>
+      <c r="C10">
+        <v>17.515999999999998</v>
+      </c>
+      <c r="D10">
+        <v>40.804000000000002</v>
+      </c>
+      <c r="F10">
+        <v>362.47199999999998</v>
+      </c>
+      <c r="G10">
+        <v>16.88</v>
+      </c>
+      <c r="H10">
+        <v>40.607999999999997</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>3.7677725118483371E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>4.8266351457842069E-3</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>2.2953497097706684E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>435.76400000000001</v>
+      </c>
+      <c r="C11">
+        <v>77.152000000000001</v>
+      </c>
+      <c r="D11">
+        <v>53.624000000000002</v>
+      </c>
+      <c r="F11">
+        <v>431.01600000000002</v>
+      </c>
+      <c r="G11">
+        <v>70.459999999999994</v>
+      </c>
+      <c r="H11">
+        <v>55.564</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>9.4975872835651551E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>-3.4914692966669027E-2</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>1.1015832358891527E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>359.64400000000001</v>
+      </c>
+      <c r="C12">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="D12">
+        <v>47.003999999999998</v>
+      </c>
+      <c r="F12">
+        <v>364.24799999999999</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>52.247999999999998</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>9.3714285714285667E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>-0.100367478180983</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>-1.2639739957391627E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>367.64400000000001</v>
+      </c>
+      <c r="C13">
+        <v>7.6559999999999997</v>
+      </c>
+      <c r="D13">
+        <v>54.996000000000002</v>
+      </c>
+      <c r="F13">
+        <v>367.17200000000003</v>
+      </c>
+      <c r="G13">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H13">
+        <v>55.183999999999997</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>9.3089663049685925E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>-3.4067845752391145E-3</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>1.2855010730665191E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="K15">
+        <f>AVERAGE(J4:K13)</f>
+        <v>5.6885899864094147E-2</v>
+      </c>
+      <c r="M15">
+        <f>AVERAGE(M4:M13)</f>
+        <v>9.6482922114772864E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>352.06</v>
+      </c>
+      <c r="C19">
+        <v>7.7560000000000002</v>
+      </c>
+      <c r="D19">
+        <v>39.323999999999998</v>
+      </c>
+      <c r="F19">
+        <v>349.80799999999999</v>
+      </c>
+      <c r="G19">
+        <v>7.7</v>
+      </c>
+      <c r="H19">
+        <v>37.119999999999997</v>
+      </c>
+      <c r="J19">
+        <f>(C19-G19)/G19</f>
+        <v>7.2727272727272788E-3</v>
+      </c>
+      <c r="K19">
+        <f>(D19-H19)/H19</f>
+        <v>5.9375000000000018E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>354.43599999999998</v>
+      </c>
+      <c r="C20">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="D20">
+        <v>41.704000000000001</v>
+      </c>
+      <c r="F20">
+        <v>353.97199999999998</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+      <c r="H20">
+        <v>41.984000000000002</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ref="J20:J33" si="3">(C20-G20)/G20</f>
+        <v>0.1074285714285714</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ref="K20:K33" si="4">(D20-H20)/H20</f>
+        <v>-6.6692073170731975E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>389.75599999999997</v>
+      </c>
+      <c r="C21">
+        <v>39.728000000000002</v>
+      </c>
+      <c r="D21">
+        <v>43.036000000000001</v>
+      </c>
+      <c r="F21">
+        <v>373.09199999999998</v>
+      </c>
+      <c r="G21">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H21">
+        <v>29.3</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="3"/>
+        <v>2.3917525773195992E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="4"/>
+        <v>0.46880546075085328</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22">
+        <v>374.452</v>
+      </c>
+      <c r="C22">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="D22">
+        <v>61.72</v>
+      </c>
+      <c r="F22">
+        <v>361.15199999999999</v>
+      </c>
+      <c r="G22">
+        <v>7</v>
+      </c>
+      <c r="H22">
+        <v>49.16</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="3"/>
+        <v>0.1074285714285714</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="4"/>
+        <v>0.25549227013832393</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23">
+        <v>370.30399999999997</v>
+      </c>
+      <c r="C23">
+        <v>32.548000000000002</v>
+      </c>
+      <c r="D23">
+        <v>32.543999999999997</v>
+      </c>
+      <c r="F23">
+        <v>367.05599999999998</v>
+      </c>
+      <c r="G23">
+        <v>32.783999999999999</v>
+      </c>
+      <c r="H23">
+        <v>29.283999999999999</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="3"/>
+        <v>-7.1986334797461294E-3</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="4"/>
+        <v>0.11132358967354181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>403.37200000000001</v>
+      </c>
+      <c r="C24">
+        <v>44.863999999999997</v>
+      </c>
+      <c r="D24">
+        <v>53.48</v>
+      </c>
+      <c r="F24">
+        <v>403.47199999999998</v>
+      </c>
+      <c r="G24">
+        <v>42.603999999999999</v>
+      </c>
+      <c r="H24">
+        <v>55.88</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="3"/>
+        <v>5.3046662285231388E-2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>-4.2949176807444624E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>363.37599999999998</v>
+      </c>
+      <c r="C25">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="D25">
+        <v>50.636000000000003</v>
+      </c>
+      <c r="F25">
+        <v>358.55200000000002</v>
+      </c>
+      <c r="G25">
+        <v>7</v>
+      </c>
+      <c r="H25">
+        <v>46.564</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="3"/>
+        <v>0.1074285714285714</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="4"/>
+        <v>8.7449531827162669E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>349.62</v>
+      </c>
+      <c r="C26">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="D26">
+        <v>36.875999999999998</v>
+      </c>
+      <c r="F26">
+        <v>348.77199999999999</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>36.783999999999999</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="3"/>
+        <v>0.1074285714285714</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="4"/>
+        <v>2.5010874293170606E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>396.56</v>
+      </c>
+      <c r="C27">
+        <v>36.923999999999999</v>
+      </c>
+      <c r="D27">
+        <v>52.64</v>
+      </c>
+      <c r="F27">
+        <v>387.51600000000002</v>
+      </c>
+      <c r="G27">
+        <v>37.384</v>
+      </c>
+      <c r="H27">
+        <v>45.148000000000003</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>-1.2304729295955512E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="4"/>
+        <v>0.16594312040400452</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>389.05599999999998</v>
+      </c>
+      <c r="C28">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="D28">
+        <v>76.323999999999998</v>
+      </c>
+      <c r="F28">
+        <v>373.79199999999997</v>
+      </c>
+      <c r="G28">
+        <v>7</v>
+      </c>
+      <c r="H28">
+        <v>61.804000000000002</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="3"/>
+        <v>0.1074285714285714</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="4"/>
+        <v>0.23493625008090083</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>359.4</v>
+      </c>
+      <c r="C29">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="D29">
+        <v>46.664000000000001</v>
+      </c>
+      <c r="F29">
+        <v>361.79599999999999</v>
+      </c>
+      <c r="G29">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H29">
+        <v>49.804000000000002</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="3"/>
+        <v>0.1067961165048544</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>-6.3047144807645977E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>353.55599999999998</v>
+      </c>
+      <c r="C30">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="D30">
+        <v>40.823999999999998</v>
+      </c>
+      <c r="F30">
+        <v>350.01600000000002</v>
+      </c>
+      <c r="G30">
+        <v>7.0039999999999996</v>
+      </c>
+      <c r="H30">
+        <v>38.024000000000001</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="3"/>
+        <v>0.1067961165048544</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="4"/>
+        <v>7.3637702503681804E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>357.55599999999998</v>
+      </c>
+      <c r="C31">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="D31">
+        <v>44.82</v>
+      </c>
+      <c r="F31">
+        <v>351.13200000000001</v>
+      </c>
+      <c r="G31">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <v>39.14</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="3"/>
+        <v>0.1074285714285714</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="4"/>
+        <v>0.14512008175779254</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32">
+        <v>387.73599999999999</v>
+      </c>
+      <c r="C32">
+        <v>40.444000000000003</v>
+      </c>
+      <c r="D32">
+        <v>42.304000000000002</v>
+      </c>
+      <c r="F32">
+        <v>388.81599999999997</v>
+      </c>
+      <c r="G32">
+        <v>41.444000000000003</v>
+      </c>
+      <c r="H32">
+        <v>42.384</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="3"/>
+        <v>-2.4128945082520992E-2</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="4"/>
+        <v>-1.8875047187617566E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33">
+        <v>380.45600000000002</v>
+      </c>
+      <c r="C33">
+        <v>35.723999999999997</v>
+      </c>
+      <c r="D33">
+        <v>39.744</v>
+      </c>
+      <c r="F33">
+        <v>375.452</v>
+      </c>
+      <c r="G33">
+        <v>34.96</v>
+      </c>
+      <c r="H33">
+        <v>35.503999999999998</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="3"/>
+        <v>2.1853546910755028E-2</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="4"/>
+        <v>0.11942316358720151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K35">
+        <f>AVERAGE(J19:K33)</f>
+        <v>8.4335868015555954E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:K2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49134889-6B41-4415-900A-9F1B25EE9ABB}">
   <dimension ref="A1:K52"/>
   <sheetViews>
@@ -2798,7 +3820,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640890E4-98FF-4D08-9420-BEDEF30F9EDF}">
   <dimension ref="A1:K73"/>
   <sheetViews>
@@ -4796,7 +5818,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002B6E8-5374-4998-94D3-D93E3D26C283}">
   <dimension ref="A1:K95"/>
   <sheetViews>
@@ -7414,7 +8436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A16E61-9B29-465D-8B4B-E21AF31D5708}">
   <dimension ref="A1:K111"/>
   <sheetViews>
@@ -10652,7 +11674,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55848B24-DB23-49B6-8250-12CB2A872164}">
   <dimension ref="A1:K132"/>
   <sheetViews>
@@ -14510,11 +15532,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D26FB8DE-947C-489D-AA5C-0B528FDCA3AE}">
   <dimension ref="A1:P155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+    <sheetView topLeftCell="A129" workbookViewId="0">
       <selection activeCell="S151" sqref="S151"/>
     </sheetView>
   </sheetViews>
